--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H522"/>
+  <dimension ref="A1:H514"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13743,10 +13743,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -13777,10 +13775,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H415" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -13811,10 +13807,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -13845,10 +13839,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H417" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="418">
@@ -13879,10 +13871,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -13917,10 +13907,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H419" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="420">
@@ -13955,10 +13943,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -13993,10 +13979,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H421" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="422">
@@ -14031,10 +14015,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -14069,10 +14051,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -14103,10 +14083,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H424" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="425">
@@ -14141,10 +14119,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -14175,10 +14151,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -14209,10 +14183,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -14247,10 +14219,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14281,10 +14251,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14315,10 +14283,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14353,10 +14319,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H431" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="432">
@@ -14387,10 +14351,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14421,10 +14383,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14455,10 +14415,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -14489,10 +14447,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14515,10 +14471,8 @@
       <c r="E436" t="inlineStr"/>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr"/>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14545,10 +14499,8 @@
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14575,10 +14527,8 @@
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr"/>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14605,10 +14555,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14635,10 +14583,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14665,10 +14611,8 @@
         </is>
       </c>
       <c r="G441" t="inlineStr"/>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14695,10 +14639,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14725,10 +14667,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H443" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="444">
@@ -14777,10 +14717,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H445" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="446">
@@ -14811,10 +14749,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -14849,10 +14785,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H447" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="448">
@@ -14883,10 +14817,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H448" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -14913,10 +14845,8 @@
       </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -14943,10 +14873,8 @@
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H450" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="451">
@@ -14991,10 +14919,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
@@ -15025,46 +14951,60 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H453" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr"/>
-      <c r="C454" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D454" t="inlineStr"/>
-      <c r="E454" t="inlineStr"/>
+      <c r="E454" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F454" t="inlineStr"/>
       <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr"/>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
@@ -15076,25 +15016,21 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A456" t="inlineStr"/>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
@@ -15106,11 +15042,7 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A457" t="inlineStr"/>
       <c r="B457" t="inlineStr">
         <is>
           <t>TR</t>
@@ -15118,13 +15050,13 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
@@ -15136,97 +15068,81 @@
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A458" t="inlineStr"/>
       <c r="B458" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
       <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A459" t="inlineStr"/>
       <c r="B459" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
       <c r="G459" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A460" t="inlineStr"/>
       <c r="B460" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15236,57 +15152,45 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C461" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
       <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
+      <c r="H461" t="inlineStr"/>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr"/>
+      <c r="E462" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15296,23 +15200,31 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15322,17 +15234,17 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
@@ -15348,31 +15260,23 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G465" t="inlineStr"/>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -15382,23 +15286,31 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr"/>
+      <c r="E466" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15408,23 +15320,31 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr"/>
+      <c r="E467" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -15434,27 +15354,31 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
-      <c r="G468" t="inlineStr"/>
+      <c r="G468" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H468" t="inlineStr">
         <is>
           <t>3</t>
@@ -15464,23 +15388,23 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
@@ -15494,185 +15418,169 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E472" t="inlineStr"/>
       <c r="F472" t="inlineStr"/>
       <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
-      <c r="E473" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E473" t="inlineStr"/>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
           <t>3</t>
@@ -15682,87 +15590,95 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr"/>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
       <c r="G477" t="inlineStr"/>
       <c r="H477" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H478" t="inlineStr">
         <is>
           <t>3</t>
@@ -15770,25 +15686,33 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr"/>
+      <c r="G479" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H479" t="inlineStr">
         <is>
           <t>3</t>
@@ -15796,21 +15720,25 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
@@ -15822,21 +15750,25 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr"/>
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
@@ -15848,27 +15780,31 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" t="inlineStr"/>
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
@@ -15878,23 +15814,23 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr"/>
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E483" t="inlineStr"/>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr"/>
       <c r="H483" t="inlineStr">
@@ -15906,43 +15842,59 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr"/>
-      <c r="C484" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr"/>
-      <c r="H484" t="inlineStr"/>
+      <c r="H484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
@@ -15954,29 +15906,29 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -15988,23 +15940,31 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr"/>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16014,23 +15974,31 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16040,99 +16008,87 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E489" t="inlineStr"/>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
       <c r="H489" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>$ 2.8B</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
-      <c r="G491" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G491" t="inlineStr"/>
       <c r="H491" t="inlineStr">
         <is>
           <t>3</t>
@@ -16142,23 +16098,23 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
@@ -16170,55 +16126,47 @@
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A493" t="inlineStr"/>
       <c r="B493" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A494" t="inlineStr"/>
       <c r="B494" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
@@ -16232,47 +16180,39 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C495" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr"/>
       <c r="F495" t="inlineStr"/>
       <c r="G495" t="inlineStr"/>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H495" t="inlineStr"/>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
-      <c r="E496" t="inlineStr"/>
+      <c r="E496" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
@@ -16284,27 +16224,31 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H497" t="inlineStr">
         <is>
           <t>3</t>
@@ -16314,7 +16258,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -16324,179 +16268,191 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr"/>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
       <c r="G501" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
       <c r="G502" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr"/>
+      <c r="G503" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
       <c r="H503" t="inlineStr">
         <is>
           <t>3</t>
@@ -16506,27 +16462,31 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H504" t="inlineStr">
         <is>
           <t>3</t>
@@ -16536,29 +16496,29 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H505" t="inlineStr">
@@ -16570,23 +16530,31 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
-      <c r="E506" t="inlineStr"/>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
           <t>3</t>
@@ -16596,27 +16564,31 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>10:05 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
-      <c r="G507" t="inlineStr"/>
+      <c r="G507" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H507" t="inlineStr">
         <is>
           <t>3</t>
@@ -16626,29 +16598,29 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
       <c r="G508" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H508" t="inlineStr">
@@ -16660,29 +16632,29 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -16694,31 +16666,27 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
       <c r="E510" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr">
         <is>
           <t>3</t>
@@ -16728,29 +16696,29 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -16760,306 +16728,90 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
+      <c r="A512" t="inlineStr"/>
       <c r="B512" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
-      <c r="E512" t="inlineStr"/>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr"/>
+      <c r="G512" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H512" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
+      <c r="A513" t="inlineStr"/>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>$ 2.8B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
+      <c r="A514" t="inlineStr"/>
       <c r="B514" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H514" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>11:00 PM</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="C515" t="inlineStr">
-        <is>
-          <t>Imports YoYDEC</t>
-        </is>
-      </c>
-      <c r="D515" t="inlineStr"/>
-      <c r="E515" t="inlineStr">
-        <is>
-          <t>0.01%</t>
-        </is>
-      </c>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr"/>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr"/>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>KR</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>5-Year KTB Auction</t>
-        </is>
-      </c>
-      <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr">
-        <is>
-          <t>2.680%</t>
-        </is>
-      </c>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr"/>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C517" t="inlineStr">
-        <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr"/>
-      <c r="C518" t="inlineStr"/>
-      <c r="D518" t="inlineStr"/>
-      <c r="E518" t="inlineStr"/>
-      <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
-      <c r="H518" t="inlineStr"/>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>01:00 AM</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="C519" t="inlineStr">
-        <is>
-          <t>Machine Tool Orders YoYDEC</t>
-        </is>
-      </c>
-      <c r="D519" t="inlineStr"/>
-      <c r="E519" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr"/>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C520" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D520" t="inlineStr"/>
-      <c r="E520" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr"/>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D521" t="inlineStr"/>
-      <c r="E521" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr"/>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D522" t="inlineStr"/>
-      <c r="E522" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H522" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H574"/>
+  <dimension ref="A1:H552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6207,10 +6207,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H165" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="166">
@@ -6247,10 +6245,8 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
@@ -6281,10 +6277,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H168" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="169">
@@ -6315,10 +6309,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H169" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="170">
@@ -6353,10 +6345,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H170" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="171">
@@ -6387,10 +6377,8 @@
           <t>50.8</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H171" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="172">
@@ -6421,10 +6409,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="173">
@@ -6459,10 +6445,8 @@
           <t>51.1</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="174">
@@ -6493,10 +6477,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H174" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="175">
@@ -6541,10 +6523,8 @@
           <t>58.2</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H176" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="177">
@@ -6579,10 +6559,8 @@
           <t>58</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H177" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="178">
@@ -6613,10 +6591,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -6651,10 +6627,8 @@
           <t>53.5</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -6685,10 +6659,8 @@
           <t>53.4</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H180" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="181">
@@ -6719,10 +6691,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -6757,10 +6727,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6795,10 +6763,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H183" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="184">
@@ -6833,10 +6799,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -6871,10 +6835,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
@@ -6909,10 +6871,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
@@ -6947,10 +6907,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="188">
@@ -6985,10 +6943,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
@@ -7015,10 +6971,8 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -7045,10 +6999,8 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -7075,10 +7027,8 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -7105,10 +7055,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7135,10 +7083,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7165,10 +7111,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7195,10 +7139,8 @@
       </c>
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7225,10 +7167,8 @@
       </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H196" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="197">
@@ -7255,10 +7195,8 @@
       </c>
       <c r="F197" t="inlineStr"/>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7285,10 +7223,8 @@
       </c>
       <c r="F198" t="inlineStr"/>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H198" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="199">
@@ -7315,10 +7251,8 @@
       </c>
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H199" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="200">
@@ -7345,10 +7279,8 @@
       </c>
       <c r="F200" t="inlineStr"/>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H200" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="201">
@@ -7379,10 +7311,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7417,10 +7347,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="203">
@@ -7455,10 +7383,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H203" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="204">
@@ -7489,10 +7415,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H204" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="205">
@@ -7523,10 +7447,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
@@ -7557,10 +7479,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="207">
@@ -7591,10 +7511,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -7629,10 +7547,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H208" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -7667,10 +7583,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7705,10 +7619,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7739,10 +7651,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -7769,10 +7679,8 @@
       </c>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H212" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="213">
@@ -7799,10 +7707,8 @@
       </c>
       <c r="F213" t="inlineStr"/>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H213" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="214">
@@ -7829,10 +7735,8 @@
       </c>
       <c r="F214" t="inlineStr"/>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H214" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="215">
@@ -7855,10 +7759,8 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="216">
@@ -7889,10 +7791,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7923,10 +7823,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7961,10 +7859,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H218" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="219">
@@ -7999,10 +7895,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H219" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -8037,10 +7931,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="221">
@@ -8071,10 +7963,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -8101,10 +7991,8 @@
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H222" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="223">
@@ -8131,10 +8019,8 @@
       </c>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H223" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="224">
@@ -8161,10 +8047,8 @@
       </c>
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8195,10 +8079,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="226">
@@ -8225,10 +8107,8 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8259,10 +8139,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8297,10 +8175,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H228" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="229">
@@ -8335,10 +8211,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H229" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="230">
@@ -8369,10 +8243,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8399,10 +8271,8 @@
       </c>
       <c r="F231" t="inlineStr"/>
       <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8429,10 +8299,8 @@
       </c>
       <c r="F232" t="inlineStr"/>
       <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8455,10 +8323,8 @@
       </c>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8485,10 +8351,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8515,10 +8379,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H235" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="236">
@@ -8545,10 +8407,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8575,10 +8435,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -8605,10 +8463,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H238" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="239">
@@ -8627,10 +8483,8 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr"/>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H239" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="240">
@@ -8661,10 +8515,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
@@ -8705,10 +8557,8 @@
       </c>
       <c r="F242" t="inlineStr"/>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8735,10 +8585,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8773,10 +8621,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H244" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="245">
@@ -8807,10 +8653,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="246">
@@ -8845,10 +8689,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H246" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -8883,10 +8725,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
@@ -8921,10 +8761,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H248" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="249">
@@ -8951,10 +8789,8 @@
       </c>
       <c r="F249" t="inlineStr"/>
       <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8985,10 +8821,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H250" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="251">
@@ -9019,10 +8853,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9053,10 +8885,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H252" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="253">
@@ -9087,10 +8917,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9121,10 +8949,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H254" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="255">
@@ -9155,10 +8981,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
@@ -9193,10 +9017,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -9227,10 +9049,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="258">
@@ -9265,10 +9085,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H258" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -9295,10 +9113,8 @@
       </c>
       <c r="F259" t="inlineStr"/>
       <c r="G259" t="inlineStr"/>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -9325,10 +9141,8 @@
       </c>
       <c r="F260" t="inlineStr"/>
       <c r="G260" t="inlineStr"/>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H260" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="261">
@@ -9363,10 +9177,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H261" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -9401,10 +9213,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H262" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -9439,10 +9249,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="264">
@@ -9473,10 +9281,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H264" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="265">
@@ -9507,10 +9313,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -9545,10 +9349,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H266" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -9583,10 +9385,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
@@ -9617,10 +9417,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H268" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="269">
@@ -9651,10 +9449,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H269" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="270">
@@ -9681,10 +9477,8 @@
       </c>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H270" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="271">
@@ -9711,10 +9505,8 @@
       </c>
       <c r="F271" t="inlineStr"/>
       <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9745,10 +9537,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9779,10 +9569,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H273" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="274">
@@ -9813,10 +9601,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -9839,10 +9625,8 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr"/>
       <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -9877,10 +9661,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H276" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -9911,10 +9693,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H277" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="278">
@@ -9945,10 +9725,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H278" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="279">
@@ -9983,10 +9761,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H279" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="280">
@@ -10017,10 +9793,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H280" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="281">
@@ -10051,10 +9825,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H281" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="282">
@@ -10081,10 +9853,8 @@
       </c>
       <c r="F282" t="inlineStr"/>
       <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -10119,10 +9889,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H283" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -10157,10 +9925,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H284" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -10195,10 +9961,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H285" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -10229,10 +9993,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -10263,10 +10025,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H287" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="288">
@@ -10297,10 +10057,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -10331,10 +10089,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H289" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="290">
@@ -10365,10 +10121,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10395,10 +10149,8 @@
       </c>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10425,10 +10177,8 @@
       </c>
       <c r="F292" t="inlineStr"/>
       <c r="G292" t="inlineStr"/>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10455,10 +10205,8 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="294">
@@ -10489,10 +10237,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10527,10 +10273,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="296">
@@ -10561,10 +10305,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H296" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="297">
@@ -10587,10 +10329,8 @@
       </c>
       <c r="F297" t="inlineStr"/>
       <c r="G297" t="inlineStr"/>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H297" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="298">
@@ -10621,10 +10361,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -10647,10 +10385,8 @@
       </c>
       <c r="F299" t="inlineStr"/>
       <c r="G299" t="inlineStr"/>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H299" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="300">
@@ -10673,10 +10409,8 @@
       </c>
       <c r="F300" t="inlineStr"/>
       <c r="G300" t="inlineStr"/>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H300" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="301">
@@ -10699,10 +10433,8 @@
       </c>
       <c r="F301" t="inlineStr"/>
       <c r="G301" t="inlineStr"/>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H301" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="302">
@@ -10751,10 +10483,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H303" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -10785,10 +10515,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -10823,10 +10551,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
@@ -10861,10 +10587,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
@@ -10895,10 +10619,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -10933,10 +10655,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10971,10 +10691,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
@@ -11005,10 +10723,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -11035,10 +10751,8 @@
       </c>
       <c r="F311" t="inlineStr"/>
       <c r="G311" t="inlineStr"/>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -11065,10 +10779,8 @@
       </c>
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr"/>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -11103,10 +10815,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H313" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="314">
@@ -11141,10 +10851,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H314" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="315">
@@ -11175,10 +10883,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -11213,10 +10919,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -11251,10 +10955,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11289,10 +10991,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11323,10 +11023,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11357,10 +11055,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H320" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="321">
@@ -11387,10 +11083,8 @@
       </c>
       <c r="F321" t="inlineStr"/>
       <c r="G321" t="inlineStr"/>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11421,10 +11115,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H322" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="323">
@@ -11451,10 +11143,8 @@
       </c>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11481,10 +11171,8 @@
       </c>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11511,10 +11199,8 @@
       </c>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11549,10 +11235,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="327">
@@ -11587,10 +11271,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H327" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="328">
@@ -11617,10 +11299,8 @@
       </c>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -11643,10 +11323,8 @@
       <c r="E329" t="inlineStr"/>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -11669,10 +11347,8 @@
       <c r="E330" t="inlineStr"/>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H330" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="331">
@@ -11695,10 +11371,8 @@
       <c r="E331" t="inlineStr"/>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H331" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="332">
@@ -11721,10 +11395,8 @@
       <c r="E332" t="inlineStr"/>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11759,10 +11431,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H333" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="334">
@@ -11785,10 +11455,8 @@
       <c r="E334" t="inlineStr"/>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="335">
@@ -11815,10 +11483,8 @@
       </c>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11845,10 +11511,8 @@
       </c>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
@@ -11875,10 +11539,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H337" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="338">
@@ -11905,10 +11567,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11935,10 +11595,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -11965,10 +11623,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11995,10 +11651,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -12025,10 +11679,8 @@
       </c>
       <c r="F342" t="inlineStr"/>
       <c r="G342" t="inlineStr"/>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12055,10 +11707,8 @@
       </c>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H343" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="344">
@@ -12085,10 +11735,8 @@
       </c>
       <c r="F344" t="inlineStr"/>
       <c r="G344" t="inlineStr"/>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12115,10 +11763,8 @@
       </c>
       <c r="F345" t="inlineStr"/>
       <c r="G345" t="inlineStr"/>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12145,10 +11791,8 @@
       </c>
       <c r="F346" t="inlineStr"/>
       <c r="G346" t="inlineStr"/>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12175,10 +11819,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12209,10 +11851,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12235,10 +11875,8 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -12273,10 +11911,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12311,10 +11947,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H351" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="352">
@@ -12345,10 +11979,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H352" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="353">
@@ -12375,10 +12007,8 @@
       </c>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr"/>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -12401,10 +12031,8 @@
       <c r="E354" t="inlineStr"/>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr"/>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -12427,10 +12055,8 @@
       <c r="E355" t="inlineStr"/>
       <c r="F355" t="inlineStr"/>
       <c r="G355" t="inlineStr"/>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12457,10 +12083,8 @@
       </c>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12495,10 +12119,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H357" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -12533,10 +12155,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H358" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="359">
@@ -12563,10 +12183,8 @@
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12593,10 +12211,8 @@
       </c>
       <c r="F360" t="inlineStr"/>
       <c r="G360" t="inlineStr"/>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H360" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="361">
@@ -12627,10 +12243,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
@@ -12657,10 +12271,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H362" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="363">
@@ -12687,10 +12299,8 @@
       </c>
       <c r="F363" t="inlineStr"/>
       <c r="G363" t="inlineStr"/>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H363" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="364">
@@ -12713,10 +12323,8 @@
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -12739,10 +12347,8 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12791,10 +12397,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H367" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -12821,10 +12425,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="369">
@@ -12859,10 +12461,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -12889,10 +12489,8 @@
       </c>
       <c r="F370" t="inlineStr"/>
       <c r="G370" t="inlineStr"/>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H370" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="371">
@@ -12919,10 +12517,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -12949,10 +12545,8 @@
       </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -12979,10 +12573,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -13009,10 +12601,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13047,10 +12637,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H375" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="376">
@@ -13081,10 +12669,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H376" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="377">
@@ -13111,10 +12697,8 @@
       </c>
       <c r="F377" t="inlineStr"/>
       <c r="G377" t="inlineStr"/>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13141,10 +12725,8 @@
       </c>
       <c r="F378" t="inlineStr"/>
       <c r="G378" t="inlineStr"/>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -13171,10 +12753,8 @@
       </c>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -13201,10 +12781,8 @@
       </c>
       <c r="F380" t="inlineStr"/>
       <c r="G380" t="inlineStr"/>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H380" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="381">
@@ -13231,10 +12809,8 @@
       </c>
       <c r="F381" t="inlineStr"/>
       <c r="G381" t="inlineStr"/>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13265,10 +12841,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H382" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="383">
@@ -13299,10 +12873,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H383" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="384">
@@ -13333,10 +12905,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13359,10 +12929,8 @@
       <c r="E385" t="inlineStr"/>
       <c r="F385" t="inlineStr"/>
       <c r="G385" t="inlineStr"/>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13393,10 +12961,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H386" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="387">
@@ -13427,10 +12993,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H387" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="388">
@@ -13465,10 +13029,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H388" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="389">
@@ -13503,10 +13065,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H389" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="390">
@@ -13541,10 +13101,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H390" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="391">
@@ -13579,10 +13137,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -13613,10 +13169,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -13647,10 +13201,8 @@
         </is>
       </c>
       <c r="G393" t="inlineStr"/>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -13677,10 +13229,8 @@
       </c>
       <c r="F394" t="inlineStr"/>
       <c r="G394" t="inlineStr"/>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13707,10 +13257,8 @@
       </c>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13733,10 +13281,8 @@
       <c r="E396" t="inlineStr"/>
       <c r="F396" t="inlineStr"/>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H396" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="397">
@@ -13767,10 +13313,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13801,10 +13345,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13827,10 +13369,8 @@
       <c r="E399" t="inlineStr"/>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H399" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="400">
@@ -13865,10 +13405,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13891,10 +13429,8 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13921,10 +13457,8 @@
         </is>
       </c>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H402" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="403">
@@ -13947,10 +13481,8 @@
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H403" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="404">
@@ -13973,10 +13505,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H404" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="405">
@@ -14003,10 +13533,8 @@
       </c>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -14029,10 +13557,8 @@
       <c r="E406" t="inlineStr"/>
       <c r="F406" t="inlineStr"/>
       <c r="G406" t="inlineStr"/>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H406" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="407">
@@ -14055,10 +13581,8 @@
       <c r="E407" t="inlineStr"/>
       <c r="F407" t="inlineStr"/>
       <c r="G407" t="inlineStr"/>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H407" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="408">
@@ -14081,10 +13605,8 @@
       <c r="E408" t="inlineStr"/>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H408" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="409">
@@ -14107,10 +13629,8 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H409" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="410">
@@ -14133,10 +13653,8 @@
       <c r="E410" t="inlineStr"/>
       <c r="F410" t="inlineStr"/>
       <c r="G410" t="inlineStr"/>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H410" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="411">
@@ -14163,10 +13681,8 @@
       </c>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412">
@@ -14197,10 +13713,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -14235,10 +13749,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -14265,10 +13777,8 @@
       </c>
       <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr"/>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H414" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="415">
@@ -14291,10 +13801,8 @@
       <c r="E415" t="inlineStr"/>
       <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr"/>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H415" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="416">
@@ -14321,10 +13829,8 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -14347,124 +13853,142 @@
       </c>
       <c r="F417" t="inlineStr"/>
       <c r="G417" t="inlineStr"/>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr"/>
-      <c r="C418" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Employment ChangeDEC</t>
+        </is>
+      </c>
       <c r="D418" t="inlineStr"/>
-      <c r="E418" t="inlineStr"/>
-      <c r="F418" t="inlineStr"/>
-      <c r="G418" t="inlineStr"/>
-      <c r="H418" t="inlineStr"/>
+      <c r="E418" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F419" t="inlineStr"/>
       <c r="G419" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F420" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F420" t="inlineStr"/>
       <c r="G420" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F421" t="inlineStr"/>
       <c r="G421" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
@@ -14476,63 +14000,67 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -14544,177 +14072,181 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F424" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F424" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
       <c r="E427" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F427" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F427" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F428" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
@@ -14726,29 +14258,33 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
@@ -14760,27 +14296,31 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
-      <c r="G430" t="inlineStr"/>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H430" t="inlineStr">
         <is>
           <t>3</t>
@@ -14790,83 +14330,103 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F431" t="inlineStr"/>
-      <c r="G431" t="inlineStr"/>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F432" t="inlineStr"/>
-      <c r="G432" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F432" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G432" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
-      <c r="E433" t="inlineStr"/>
+      <c r="E433" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F433" t="inlineStr"/>
-      <c r="G433" t="inlineStr"/>
+      <c r="G433" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H433" t="inlineStr">
         <is>
           <t>3</t>
@@ -14876,97 +14436,101 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
       <c r="E434" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F435" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
@@ -14978,29 +14542,29 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
@@ -15012,29 +14576,29 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
@@ -15046,29 +14610,29 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F439" t="inlineStr"/>
       <c r="G439" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
@@ -15080,209 +14644,173 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
-      <c r="E440" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G440" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E440" t="inlineStr"/>
+      <c r="F440" t="inlineStr"/>
+      <c r="G440" t="inlineStr"/>
       <c r="H440" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G441" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr"/>
+      <c r="G441" t="inlineStr"/>
       <c r="H441" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F442" t="inlineStr"/>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G442" t="inlineStr"/>
       <c r="H442" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A443" t="inlineStr"/>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A444" t="inlineStr"/>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A445" t="inlineStr"/>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G445" t="inlineStr"/>
       <c r="H445" t="inlineStr">
         <is>
           <t>3</t>
@@ -15290,35 +14818,27 @@
       </c>
     </row>
     <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A446" t="inlineStr"/>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>-3.1%</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
@@ -15328,149 +14848,113 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A447" t="inlineStr"/>
       <c r="B447" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F447" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C448" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
       <c r="D448" t="inlineStr"/>
-      <c r="E448" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F448" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr"/>
+      <c r="H448" t="inlineStr"/>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F449" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G449" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F450" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -15482,29 +14966,33 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="F451" t="inlineStr"/>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="F451" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -15516,173 +15004,137 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>$97.44B</t>
+        </is>
+      </c>
+      <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C455" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
       <c r="D455" t="inlineStr"/>
-      <c r="E455" t="inlineStr">
-        <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F455" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="inlineStr"/>
+      <c r="H455" t="inlineStr"/>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
@@ -15694,29 +15146,29 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
@@ -15728,69 +15180,41 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E458" t="inlineStr"/>
+      <c r="F458" t="inlineStr"/>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G459" t="inlineStr"/>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15800,31 +15224,27 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
       <c r="E460" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15834,31 +15254,27 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
       <c r="E461" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
           <t>3</t>
@@ -15868,87 +15284,95 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
       <c r="E462" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
       <c r="E464" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15958,27 +15382,31 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -15986,29 +15414,25 @@
       </c>
     </row>
     <row r="466">
-      <c r="A466" t="inlineStr"/>
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
-      <c r="E466" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E466" t="inlineStr"/>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -16016,29 +15440,25 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" t="inlineStr"/>
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
-      <c r="E467" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E467" t="inlineStr"/>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr">
         <is>
           <t>3</t>
@@ -16046,28 +15466,24 @@
       </c>
     </row>
     <row r="468">
-      <c r="A468" t="inlineStr"/>
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
-      <c r="E468" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E468" t="inlineStr"/>
+      <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
@@ -16076,27 +15492,31 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" t="inlineStr"/>
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>7.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
@@ -16106,29 +15526,25 @@
       </c>
     </row>
     <row r="470">
-      <c r="A470" t="inlineStr"/>
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
-      <c r="G470" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
           <t>3</t>
@@ -16138,181 +15554,169 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr"/>
-      <c r="C471" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
-      <c r="H471" t="inlineStr"/>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F472" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F474" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F474" t="inlineStr"/>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
-      <c r="G475" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
@@ -16326,23 +15730,23 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
@@ -16356,43 +15760,63 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr"/>
-      <c r="C478" t="inlineStr"/>
+          <t>06:50 PM</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D478" t="inlineStr"/>
-      <c r="E478" t="inlineStr"/>
+      <c r="E478" t="inlineStr">
+        <is>
+          <t>¥2457B</t>
+        </is>
+      </c>
       <c r="F478" t="inlineStr"/>
-      <c r="G478" t="inlineStr"/>
-      <c r="H478" t="inlineStr"/>
+      <c r="G478" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H478" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
@@ -16404,7 +15828,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -16414,21 +15838,17 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G480" t="inlineStr"/>
       <c r="H480" t="inlineStr">
         <is>
           <t>3</t>
@@ -16438,37 +15858,53 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr"/>
-      <c r="C481" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr"/>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr"/>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
@@ -16480,25 +15916,21 @@
       </c>
     </row>
     <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A483" t="inlineStr"/>
       <c r="B483" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
@@ -16510,11 +15942,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A484" t="inlineStr"/>
       <c r="B484" t="inlineStr">
         <is>
           <t>TR</t>
@@ -16522,13 +15950,13 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
@@ -16540,97 +15968,81 @@
       </c>
     </row>
     <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A485" t="inlineStr"/>
       <c r="B485" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
       <c r="E485" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F485" t="inlineStr"/>
       <c r="G485" t="inlineStr"/>
       <c r="H485" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A486" t="inlineStr"/>
       <c r="B486" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A487" t="inlineStr"/>
       <c r="B487" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
       <c r="E487" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16640,57 +16052,45 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C488" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E488" t="inlineStr"/>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G488" t="inlineStr"/>
+      <c r="H488" t="inlineStr"/>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
-      <c r="E489" t="inlineStr"/>
+      <c r="E489" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16700,23 +16100,31 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
-      <c r="E490" t="inlineStr"/>
+      <c r="E490" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F490" t="inlineStr"/>
-      <c r="G490" t="inlineStr"/>
+      <c r="G490" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H490" t="inlineStr">
         <is>
           <t>3</t>
@@ -16726,17 +16134,17 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
@@ -16752,31 +16160,23 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E492" t="inlineStr"/>
       <c r="F492" t="inlineStr"/>
-      <c r="G492" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G492" t="inlineStr"/>
       <c r="H492" t="inlineStr">
         <is>
           <t>3</t>
@@ -16786,23 +16186,31 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr"/>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F493" t="inlineStr"/>
-      <c r="G493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H493" t="inlineStr">
         <is>
           <t>3</t>
@@ -16812,23 +16220,31 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr"/>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F494" t="inlineStr"/>
-      <c r="G494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H494" t="inlineStr">
         <is>
           <t>3</t>
@@ -16838,27 +16254,31 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H495" t="inlineStr">
         <is>
           <t>3</t>
@@ -16868,23 +16288,23 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
@@ -16898,185 +16318,169 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr"/>
       <c r="H497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
-      <c r="E499" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E499" t="inlineStr"/>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr"/>
       <c r="H499" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
-      <c r="E500" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E500" t="inlineStr"/>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr"/>
       <c r="H500" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G502" t="inlineStr"/>
       <c r="H502" t="inlineStr">
         <is>
           <t>3</t>
@@ -17086,87 +16490,95 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
-      <c r="G503" t="inlineStr"/>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H503" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
       <c r="E504" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H505" t="inlineStr">
         <is>
           <t>3</t>
@@ -17174,25 +16586,33 @@
       </c>
     </row>
     <row r="506">
-      <c r="A506" t="inlineStr"/>
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
-      <c r="G506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H506" t="inlineStr">
         <is>
           <t>3</t>
@@ -17200,21 +16620,25 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" t="inlineStr"/>
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
@@ -17226,21 +16650,25 @@
       </c>
     </row>
     <row r="508">
-      <c r="A508" t="inlineStr"/>
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
@@ -17252,27 +16680,31 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" t="inlineStr"/>
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -17282,23 +16714,23 @@
       </c>
     </row>
     <row r="510">
-      <c r="A510" t="inlineStr"/>
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E510" t="inlineStr"/>
       <c r="F510" t="inlineStr"/>
       <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr">
@@ -17310,43 +16742,59 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr"/>
-      <c r="C511" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D511" t="inlineStr"/>
-      <c r="E511" t="inlineStr"/>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr"/>
-      <c r="H511" t="inlineStr"/>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
       <c r="G512" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H512" t="inlineStr">
@@ -17358,29 +16806,29 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
       <c r="G513" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H513" t="inlineStr">
@@ -17392,23 +16840,31 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
-      <c r="E514" t="inlineStr"/>
+      <c r="E514" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F514" t="inlineStr"/>
-      <c r="G514" t="inlineStr"/>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H514" t="inlineStr">
         <is>
           <t>3</t>
@@ -17418,23 +16874,31 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
-      <c r="E515" t="inlineStr"/>
+      <c r="E515" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr"/>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
@@ -17444,99 +16908,87 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G516" t="inlineStr"/>
       <c r="H516" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>$ 2.8B</t>
         </is>
       </c>
       <c r="H517" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G518" t="inlineStr"/>
       <c r="H518" t="inlineStr">
         <is>
           <t>3</t>
@@ -17546,23 +16998,23 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
@@ -17574,55 +17026,47 @@
       </c>
     </row>
     <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A520" t="inlineStr"/>
       <c r="B520" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A521" t="inlineStr"/>
       <c r="B521" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
@@ -17636,47 +17080,39 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C522" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr"/>
+      <c r="C522" t="inlineStr"/>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr"/>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr"/>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H522" t="inlineStr"/>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
-      <c r="E523" t="inlineStr"/>
+      <c r="E523" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
@@ -17688,27 +17124,31 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H524" t="inlineStr">
         <is>
           <t>3</t>
@@ -17718,7 +17158,7 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
@@ -17728,179 +17168,191 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H525" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
       <c r="E527" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H527" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
       <c r="G528" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H528" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
           <t>3</t>
@@ -17910,27 +17362,31 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr"/>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17940,29 +17396,29 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -17974,23 +17430,31 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr"/>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
       <c r="H533" t="inlineStr">
         <is>
           <t>3</t>
@@ -18000,27 +17464,31 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>10:05 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H534" t="inlineStr">
         <is>
           <t>3</t>
@@ -18030,29 +17498,29 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H535" t="inlineStr">
@@ -18064,29 +17532,29 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
@@ -18098,31 +17566,27 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G537" t="inlineStr"/>
       <c r="H537" t="inlineStr">
         <is>
           <t>3</t>
@@ -18132,29 +17596,29 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
@@ -18166,23 +17630,31 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr"/>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H539" t="inlineStr">
         <is>
           <t>2</t>
@@ -18192,29 +17664,29 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>$ 2.8B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
@@ -18226,23 +17698,23 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F541" t="inlineStr"/>
@@ -18256,27 +17728,31 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr"/>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H542" t="inlineStr">
         <is>
           <t>3</t>
@@ -18284,21 +17760,25 @@
       </c>
     </row>
     <row r="543">
-      <c r="A543" t="inlineStr"/>
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F543" t="inlineStr"/>
@@ -18310,25 +17790,37 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" t="inlineStr"/>
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F544" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G544" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H544" t="inlineStr">
         <is>
           <t>3</t>
@@ -18338,41 +17830,73 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr"/>
-      <c r="C545" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoY FinalDEC</t>
+        </is>
+      </c>
       <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr"/>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr"/>
+      <c r="E545" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F545" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F546" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H546" t="inlineStr">
         <is>
           <t>3</t>
@@ -18382,29 +17906,29 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H547" t="inlineStr">
@@ -18416,7 +17940,7 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
@@ -18426,70 +17950,62 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A549" t="inlineStr"/>
       <c r="B549" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A550" t="inlineStr"/>
       <c r="B550" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
@@ -18500,13 +18016,13 @@
       <c r="D550" t="inlineStr"/>
       <c r="E550" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F550" t="inlineStr"/>
       <c r="G550" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H550" t="inlineStr">
@@ -18516,794 +18032,54 @@
       </c>
     </row>
     <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A551" t="inlineStr"/>
       <c r="B551" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
       <c r="E551" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F551" t="inlineStr"/>
       <c r="G551" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A552" t="inlineStr"/>
       <c r="B552" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
-      <c r="E552" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="E552" t="inlineStr"/>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G552" t="inlineStr"/>
       <c r="H552" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D553" t="inlineStr"/>
-      <c r="E553" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>PPI Core Output MoMDEC</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>PPI Core Output YoYDEC</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>PPI Input MoMDEC</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr"/>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>PPI Input YoYDEC</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr"/>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr"/>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>PPI Output MoMDEC</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr"/>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>PPI Output YoYDEC</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr"/>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>Retail Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>Retail Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr"/>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr"/>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F562" t="inlineStr"/>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F563" t="inlineStr"/>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D565" t="inlineStr"/>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr"/>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr"/>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F567" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G567" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F568" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G568" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F569" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr"/>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr"/>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr"/>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr"/>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr"/>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr"/>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr"/>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H572"/>
+  <dimension ref="A1:H550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6509,10 +6509,8 @@
           <t>48</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="176">
@@ -6547,10 +6545,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H176" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="177">
@@ -6585,10 +6581,8 @@
           <t>48.2</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="178">
@@ -6623,10 +6617,8 @@
           <t>46.7</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H178" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="179">
@@ -6661,10 +6653,8 @@
           <t>47.8</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
@@ -6699,10 +6689,8 @@
           <t>51.0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H180" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="181">
@@ -6737,10 +6725,8 @@
           <t>49.5</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
@@ -6775,10 +6761,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
@@ -6805,10 +6789,8 @@
       </c>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H183" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="184">
@@ -6835,10 +6817,8 @@
       </c>
       <c r="F184" t="inlineStr"/>
       <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="185">
@@ -6865,10 +6845,8 @@
       </c>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H185" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="186">
@@ -6895,10 +6873,8 @@
       </c>
       <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H186" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="187">
@@ -6925,10 +6901,8 @@
       </c>
       <c r="F187" t="inlineStr"/>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H187" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="188">
@@ -6955,10 +6929,8 @@
       </c>
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H188" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="189">
@@ -6985,10 +6957,8 @@
       </c>
       <c r="F189" t="inlineStr"/>
       <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H189" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="190">
@@ -7015,10 +6985,8 @@
       </c>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191">
@@ -7045,10 +7013,8 @@
       </c>
       <c r="F191" t="inlineStr"/>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
@@ -7075,10 +7041,8 @@
       </c>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H192" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="193">
@@ -7105,10 +7069,8 @@
       </c>
       <c r="F193" t="inlineStr"/>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H193" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="194">
@@ -7135,10 +7097,8 @@
       </c>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H194" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="195">
@@ -7169,10 +7129,8 @@
           <t>-0.5%</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H195" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="196">
@@ -7207,10 +7165,8 @@
           <t>51.4</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H196" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="197">
@@ -7245,10 +7201,8 @@
           <t>50.5</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H197" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="198">
@@ -7279,10 +7233,8 @@
           <t>47.5</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H198" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="199">
@@ -7313,10 +7265,8 @@
           <t>-4.6</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H199" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="200">
@@ -7347,10 +7297,8 @@
           <t>53.2</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H200" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="201">
@@ -7381,10 +7329,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H201" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="202">
@@ -7419,10 +7365,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H202" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -7457,10 +7401,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H203" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="204">
@@ -7495,10 +7437,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H204" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="205">
@@ -7529,10 +7469,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H205" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="206">
@@ -7559,10 +7497,8 @@
       </c>
       <c r="F206" t="inlineStr"/>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H206" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="207">
@@ -7589,10 +7525,8 @@
       </c>
       <c r="F207" t="inlineStr"/>
       <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H207" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="208">
@@ -7619,10 +7553,8 @@
       </c>
       <c r="F208" t="inlineStr"/>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H208" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="209">
@@ -7645,10 +7577,8 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr"/>
       <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
@@ -7679,10 +7609,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H210" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="211">
@@ -7713,10 +7641,8 @@
           <t>51.5</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H211" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="212">
@@ -7751,10 +7677,8 @@
           <t>53</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="213">
@@ -7789,10 +7713,8 @@
           <t>58.5</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="214">
@@ -7827,10 +7749,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H214" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="215">
@@ -7861,10 +7781,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H215" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="216">
@@ -7891,10 +7809,8 @@
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H216" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="217">
@@ -7921,10 +7837,8 @@
       </c>
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H217" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="218">
@@ -7951,10 +7865,8 @@
       </c>
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H218" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="219">
@@ -7985,10 +7897,8 @@
           <t>$ 6.7B</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H219" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="220">
@@ -8015,10 +7925,8 @@
       </c>
       <c r="F220" t="inlineStr"/>
       <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H220" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="221">
@@ -8049,10 +7957,8 @@
           <t>$ 415.0B</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H221" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="222">
@@ -8087,10 +7993,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="223">
@@ -8125,10 +8029,8 @@
           <t>-1.2%</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="224">
@@ -8159,10 +8061,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H224" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="225">
@@ -8189,10 +8089,8 @@
       </c>
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H225" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="226">
@@ -8219,10 +8117,8 @@
       </c>
       <c r="F226" t="inlineStr"/>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H226" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="227">
@@ -8245,10 +8141,8 @@
       </c>
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H227" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="228">
@@ -8275,10 +8169,8 @@
           <t>$ -5.1B</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
@@ -8305,10 +8197,8 @@
           <t>$ 23.7B</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H229" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="230">
@@ -8335,10 +8225,8 @@
           <t>$ 28.8B</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H230" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="231">
@@ -8365,10 +8253,8 @@
           <t>51.8</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H231" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="232">
@@ -8395,10 +8281,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
@@ -8417,10 +8301,8 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr"/>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H233" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="234">
@@ -8451,10 +8333,8 @@
           <t>16.3M</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H234" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="235">
@@ -8495,10 +8375,8 @@
       </c>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
@@ -8525,10 +8403,8 @@
       </c>
       <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H237" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="238">
@@ -8563,10 +8439,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="239">
@@ -8597,10 +8471,8 @@
           <t>4.6%</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H239" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="240">
@@ -8635,10 +8507,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H240" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -8673,10 +8543,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="242">
@@ -8711,10 +8579,8 @@
           <t>1.8%</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
@@ -8741,10 +8607,8 @@
       </c>
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
@@ -8775,10 +8639,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
@@ -8809,10 +8671,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H245" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="246">
@@ -8843,10 +8703,8 @@
           <t>45</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H246" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="247">
@@ -8877,10 +8735,8 @@
           <t>44</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H247" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="248">
@@ -8911,10 +8767,8 @@
           <t>37.8</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
@@ -8945,10 +8799,8 @@
           <t>49</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H249" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="250">
@@ -8983,10 +8835,8 @@
           <t>5.8%</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H250" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -9017,10 +8867,8 @@
           <t>S$502.0B</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
@@ -9055,10 +8903,8 @@
           <t>54.8</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H252" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="253">
@@ -9085,10 +8931,8 @@
       </c>
       <c r="F253" t="inlineStr"/>
       <c r="G253" t="inlineStr"/>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H253" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="254">
@@ -9115,10 +8959,8 @@
       </c>
       <c r="F254" t="inlineStr"/>
       <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
@@ -9153,10 +8995,8 @@
           <t>2.4%</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H255" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -9191,10 +9031,8 @@
           <t>6.4%</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H256" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -9229,10 +9067,8 @@
           <t>2.7%</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H257" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="258">
@@ -9263,10 +9099,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H258" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="259">
@@ -9297,10 +9131,8 @@
           <t>127</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
@@ -9335,10 +9167,8 @@
           <t>1.4%</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H260" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -9373,10 +9203,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H261" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="262">
@@ -9407,10 +9235,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H262" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="263">
@@ -9441,10 +9267,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H263" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="264">
@@ -9471,10 +9295,8 @@
       </c>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="265">
@@ -9501,10 +9323,8 @@
       </c>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H265" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="266">
@@ -9535,10 +9355,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H266" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="267">
@@ -9569,10 +9387,8 @@
           <t>5.5%</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H267" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="268">
@@ -9603,10 +9419,8 @@
           <t>6.5%</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H268" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="269">
@@ -9629,10 +9443,8 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="270">
@@ -9667,10 +9479,8 @@
           <t>C$-1.5B</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H270" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -9701,10 +9511,8 @@
           <t>C$64.0B</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H271" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="272">
@@ -9735,10 +9543,8 @@
           <t>C$65.5B</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H272" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="273">
@@ -9773,10 +9579,8 @@
           <t>$-70B</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="274">
@@ -9807,10 +9611,8 @@
           <t>$264B</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="275">
@@ -9841,10 +9643,8 @@
           <t>$334B</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
@@ -9871,10 +9671,8 @@
       </c>
       <c r="F276" t="inlineStr"/>
       <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H276" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="277">
@@ -9909,10 +9707,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H277" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -9947,10 +9743,8 @@
           <t>54</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H278" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -9985,10 +9779,8 @@
           <t>7.69M</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H279" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -10019,10 +9811,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H280" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="281">
@@ -10053,10 +9843,8 @@
           <t>52</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H281" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="282">
@@ -10087,10 +9875,8 @@
           <t>54.1</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H282" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="283">
@@ -10121,10 +9907,8 @@
           <t>58.4</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H283" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="284">
@@ -10155,10 +9939,8 @@
           <t>3.31M</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H284" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="285">
@@ -10185,10 +9967,8 @@
       </c>
       <c r="F285" t="inlineStr"/>
       <c r="G285" t="inlineStr"/>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
@@ -10215,10 +9995,8 @@
       </c>
       <c r="F286" t="inlineStr"/>
       <c r="G286" t="inlineStr"/>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H286" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="287">
@@ -10245,10 +10023,8 @@
       </c>
       <c r="F287" t="inlineStr"/>
       <c r="G287" t="inlineStr"/>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H287" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="288">
@@ -10279,10 +10055,8 @@
           <t>$4.5B</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H288" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="289">
@@ -10317,10 +10091,8 @@
           <t>2.2%</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="290">
@@ -10351,10 +10123,8 @@
           <t>$ 152.0B</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H290" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="291">
@@ -10377,10 +10147,8 @@
       </c>
       <c r="F291" t="inlineStr"/>
       <c r="G291" t="inlineStr"/>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H291" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="292">
@@ -10411,10 +10179,8 @@
           <t>$3.25T</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H292" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="293">
@@ -10437,10 +10203,8 @@
       </c>
       <c r="F293" t="inlineStr"/>
       <c r="G293" t="inlineStr"/>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H293" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="294">
@@ -10463,10 +10227,8 @@
       </c>
       <c r="F294" t="inlineStr"/>
       <c r="G294" t="inlineStr"/>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
@@ -10489,10 +10251,8 @@
       </c>
       <c r="F295" t="inlineStr"/>
       <c r="G295" t="inlineStr"/>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H295" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="296">
@@ -10541,10 +10301,8 @@
           <t>36.4</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H297" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -10575,10 +10333,8 @@
           <t>$ 64.0B</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H298" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="299">
@@ -10613,10 +10369,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="300">
@@ -10651,10 +10405,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="301">
@@ -10685,10 +10437,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
@@ -10723,10 +10473,8 @@
           <t>€-6.5B</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="303">
@@ -10761,10 +10509,8 @@
           <t>89</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
@@ -10795,10 +10541,8 @@
           <t>€-2.0B</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H304" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="305">
@@ -10825,10 +10569,8 @@
       </c>
       <c r="F305" t="inlineStr"/>
       <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H305" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="306">
@@ -10855,10 +10597,8 @@
       </c>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr"/>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H306" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="307">
@@ -10893,10 +10633,8 @@
           <t>-14.5</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
@@ -10931,10 +10669,8 @@
           <t>95.5</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H308" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="309">
@@ -10965,10 +10701,8 @@
           <t>17.8</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H309" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="310">
@@ -11003,10 +10737,8 @@
           <t>-11</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H310" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="311">
@@ -11041,10 +10773,8 @@
           <t>1.3%</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H311" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="312">
@@ -11079,10 +10809,8 @@
           <t>-2.4%</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
@@ -11113,10 +10841,8 @@
           <t>3.5</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H313" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="314">
@@ -11147,10 +10873,8 @@
           <t>7.5</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H314" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="315">
@@ -11177,10 +10901,8 @@
       </c>
       <c r="F315" t="inlineStr"/>
       <c r="G315" t="inlineStr"/>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H315" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="316">
@@ -11211,10 +10933,8 @@
           <t>7.6%</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
@@ -11241,10 +10961,8 @@
       </c>
       <c r="F317" t="inlineStr"/>
       <c r="G317" t="inlineStr"/>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H317" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="318">
@@ -11271,10 +10989,8 @@
       </c>
       <c r="F318" t="inlineStr"/>
       <c r="G318" t="inlineStr"/>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
@@ -11301,10 +11017,8 @@
       </c>
       <c r="F319" t="inlineStr"/>
       <c r="G319" t="inlineStr"/>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
@@ -11339,10 +11053,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="321">
@@ -11377,10 +11089,8 @@
           <t>2.3%</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H321" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="322">
@@ -11407,10 +11117,8 @@
       </c>
       <c r="F322" t="inlineStr"/>
       <c r="G322" t="inlineStr"/>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="323">
@@ -11433,10 +11141,8 @@
       <c r="E323" t="inlineStr"/>
       <c r="F323" t="inlineStr"/>
       <c r="G323" t="inlineStr"/>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H323" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="324">
@@ -11459,10 +11165,8 @@
       <c r="E324" t="inlineStr"/>
       <c r="F324" t="inlineStr"/>
       <c r="G324" t="inlineStr"/>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
@@ -11485,10 +11189,8 @@
       <c r="E325" t="inlineStr"/>
       <c r="F325" t="inlineStr"/>
       <c r="G325" t="inlineStr"/>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H325" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="326">
@@ -11511,10 +11213,8 @@
       <c r="E326" t="inlineStr"/>
       <c r="F326" t="inlineStr"/>
       <c r="G326" t="inlineStr"/>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H326" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="327">
@@ -11549,10 +11249,8 @@
           <t>140K</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="328">
@@ -11575,10 +11273,8 @@
       <c r="E328" t="inlineStr"/>
       <c r="F328" t="inlineStr"/>
       <c r="G328" t="inlineStr"/>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
@@ -11605,10 +11301,8 @@
       </c>
       <c r="F329" t="inlineStr"/>
       <c r="G329" t="inlineStr"/>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H329" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="330">
@@ -11635,10 +11329,8 @@
       </c>
       <c r="F330" t="inlineStr"/>
       <c r="G330" t="inlineStr"/>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="331">
@@ -11665,10 +11357,8 @@
       </c>
       <c r="F331" t="inlineStr"/>
       <c r="G331" t="inlineStr"/>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="332">
@@ -11695,10 +11385,8 @@
       </c>
       <c r="F332" t="inlineStr"/>
       <c r="G332" t="inlineStr"/>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
@@ -11725,10 +11413,8 @@
       </c>
       <c r="F333" t="inlineStr"/>
       <c r="G333" t="inlineStr"/>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H333" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="334">
@@ -11755,10 +11441,8 @@
       </c>
       <c r="F334" t="inlineStr"/>
       <c r="G334" t="inlineStr"/>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H334" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="335">
@@ -11785,10 +11469,8 @@
       </c>
       <c r="F335" t="inlineStr"/>
       <c r="G335" t="inlineStr"/>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H335" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="336">
@@ -11815,10 +11497,8 @@
       </c>
       <c r="F336" t="inlineStr"/>
       <c r="G336" t="inlineStr"/>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H336" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="337">
@@ -11845,10 +11525,8 @@
       </c>
       <c r="F337" t="inlineStr"/>
       <c r="G337" t="inlineStr"/>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H337" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="338">
@@ -11875,10 +11553,8 @@
       </c>
       <c r="F338" t="inlineStr"/>
       <c r="G338" t="inlineStr"/>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H338" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="339">
@@ -11905,10 +11581,8 @@
       </c>
       <c r="F339" t="inlineStr"/>
       <c r="G339" t="inlineStr"/>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H339" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="340">
@@ -11935,10 +11609,8 @@
       </c>
       <c r="F340" t="inlineStr"/>
       <c r="G340" t="inlineStr"/>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H340" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="341">
@@ -11965,10 +11637,8 @@
       </c>
       <c r="F341" t="inlineStr"/>
       <c r="G341" t="inlineStr"/>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H341" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="342">
@@ -11999,10 +11669,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H342" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="343">
@@ -12025,10 +11693,8 @@
       <c r="E343" t="inlineStr"/>
       <c r="F343" t="inlineStr"/>
       <c r="G343" t="inlineStr"/>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H343" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -12063,10 +11729,8 @@
           <t>$14.0B</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H344" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="345">
@@ -12101,10 +11765,8 @@
           <t>2.5%</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H345" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="346">
@@ -12135,10 +11797,8 @@
           <t>1.6%</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H346" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="347">
@@ -12165,10 +11825,8 @@
       </c>
       <c r="F347" t="inlineStr"/>
       <c r="G347" t="inlineStr"/>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H347" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="348">
@@ -12191,10 +11849,8 @@
       <c r="E348" t="inlineStr"/>
       <c r="F348" t="inlineStr"/>
       <c r="G348" t="inlineStr"/>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H348" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="349">
@@ -12217,10 +11873,8 @@
       <c r="E349" t="inlineStr"/>
       <c r="F349" t="inlineStr"/>
       <c r="G349" t="inlineStr"/>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H349" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="350">
@@ -12247,10 +11901,8 @@
       </c>
       <c r="F350" t="inlineStr"/>
       <c r="G350" t="inlineStr"/>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H350" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="351">
@@ -12285,10 +11937,8 @@
           <t>A$6B</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H351" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -12323,10 +11973,8 @@
           <t>1%</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H352" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="353">
@@ -12353,10 +12001,8 @@
       </c>
       <c r="F353" t="inlineStr"/>
       <c r="G353" t="inlineStr"/>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H353" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="354">
@@ -12383,10 +12029,8 @@
       </c>
       <c r="F354" t="inlineStr"/>
       <c r="G354" t="inlineStr"/>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H354" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="355">
@@ -12417,10 +12061,8 @@
           <t>120</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H355" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="356">
@@ -12447,10 +12089,8 @@
       </c>
       <c r="F356" t="inlineStr"/>
       <c r="G356" t="inlineStr"/>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H356" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="357">
@@ -12477,10 +12117,8 @@
       </c>
       <c r="F357" t="inlineStr"/>
       <c r="G357" t="inlineStr"/>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H357" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="358">
@@ -12503,10 +12141,8 @@
       </c>
       <c r="F358" t="inlineStr"/>
       <c r="G358" t="inlineStr"/>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H358" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="359">
@@ -12529,10 +12165,8 @@
       </c>
       <c r="F359" t="inlineStr"/>
       <c r="G359" t="inlineStr"/>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H359" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="360">
@@ -12581,10 +12215,8 @@
           <t>€15.0B</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H361" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -12611,10 +12243,8 @@
       </c>
       <c r="F362" t="inlineStr"/>
       <c r="G362" t="inlineStr"/>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H362" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="363">
@@ -12649,10 +12279,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H363" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="364">
@@ -12679,10 +12307,8 @@
       </c>
       <c r="F364" t="inlineStr"/>
       <c r="G364" t="inlineStr"/>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H364" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="365">
@@ -12709,10 +12335,8 @@
       </c>
       <c r="F365" t="inlineStr"/>
       <c r="G365" t="inlineStr"/>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H365" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="366">
@@ -12739,10 +12363,8 @@
       </c>
       <c r="F366" t="inlineStr"/>
       <c r="G366" t="inlineStr"/>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H366" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="367">
@@ -12769,10 +12391,8 @@
       </c>
       <c r="F367" t="inlineStr"/>
       <c r="G367" t="inlineStr"/>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H367" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="368">
@@ -12799,10 +12419,8 @@
       </c>
       <c r="F368" t="inlineStr"/>
       <c r="G368" t="inlineStr"/>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H368" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="369">
@@ -12837,10 +12455,8 @@
           <t>0.1%</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="370">
@@ -12871,10 +12487,8 @@
           <t>1.7%</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H370" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="371">
@@ -12901,10 +12515,8 @@
       </c>
       <c r="F371" t="inlineStr"/>
       <c r="G371" t="inlineStr"/>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H371" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="372">
@@ -12931,10 +12543,8 @@
       </c>
       <c r="F372" t="inlineStr"/>
       <c r="G372" t="inlineStr"/>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H372" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="373">
@@ -12961,10 +12571,8 @@
       </c>
       <c r="F373" t="inlineStr"/>
       <c r="G373" t="inlineStr"/>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H373" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="374">
@@ -12991,10 +12599,8 @@
       </c>
       <c r="F374" t="inlineStr"/>
       <c r="G374" t="inlineStr"/>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H374" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="375">
@@ -13021,10 +12627,8 @@
       </c>
       <c r="F375" t="inlineStr"/>
       <c r="G375" t="inlineStr"/>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H375" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="376">
@@ -13055,10 +12659,8 @@
           <t>0.8%</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H376" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="377">
@@ -13089,10 +12691,8 @@
           <t>-1.0%</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H377" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="378">
@@ -13123,10 +12723,8 @@
           <t>102</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H378" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="379">
@@ -13149,10 +12747,8 @@
       <c r="E379" t="inlineStr"/>
       <c r="F379" t="inlineStr"/>
       <c r="G379" t="inlineStr"/>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H379" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="380">
@@ -13183,10 +12779,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H380" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="381">
@@ -13217,10 +12811,8 @@
           <t>5%</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H381" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="382">
@@ -13255,10 +12847,8 @@
           <t>0.53%</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H382" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="383">
@@ -13293,10 +12883,8 @@
           <t>4.5%</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H383" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="384">
@@ -13331,10 +12919,8 @@
           <t>0.5%</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H384" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="385">
@@ -13369,10 +12955,8 @@
           <t>3.54%</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H385" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="386">
@@ -13403,10 +12987,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H386" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="387">
@@ -13437,10 +13019,8 @@
         </is>
       </c>
       <c r="G387" t="inlineStr"/>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H387" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="388">
@@ -13467,10 +13047,8 @@
       </c>
       <c r="F388" t="inlineStr"/>
       <c r="G388" t="inlineStr"/>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H388" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="389">
@@ -13497,10 +13075,8 @@
       </c>
       <c r="F389" t="inlineStr"/>
       <c r="G389" t="inlineStr"/>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H389" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="390">
@@ -13523,10 +13099,8 @@
       <c r="E390" t="inlineStr"/>
       <c r="F390" t="inlineStr"/>
       <c r="G390" t="inlineStr"/>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H390" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="391">
@@ -13557,10 +13131,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H391" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="392">
@@ -13591,10 +13163,8 @@
           <t>16.0%</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H392" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="393">
@@ -13617,10 +13187,8 @@
       <c r="E393" t="inlineStr"/>
       <c r="F393" t="inlineStr"/>
       <c r="G393" t="inlineStr"/>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H393" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="394">
@@ -13655,10 +13223,8 @@
           <t>-0.2%</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H394" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="395">
@@ -13681,10 +13247,8 @@
       <c r="E395" t="inlineStr"/>
       <c r="F395" t="inlineStr"/>
       <c r="G395" t="inlineStr"/>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H395" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="396">
@@ -13711,10 +13275,8 @@
         </is>
       </c>
       <c r="G396" t="inlineStr"/>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H396" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="397">
@@ -13737,10 +13299,8 @@
       <c r="E397" t="inlineStr"/>
       <c r="F397" t="inlineStr"/>
       <c r="G397" t="inlineStr"/>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H397" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="398">
@@ -13763,10 +13323,8 @@
       <c r="E398" t="inlineStr"/>
       <c r="F398" t="inlineStr"/>
       <c r="G398" t="inlineStr"/>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H398" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="399">
@@ -13793,10 +13351,8 @@
       </c>
       <c r="F399" t="inlineStr"/>
       <c r="G399" t="inlineStr"/>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H399" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="400">
@@ -13819,10 +13375,8 @@
       <c r="E400" t="inlineStr"/>
       <c r="F400" t="inlineStr"/>
       <c r="G400" t="inlineStr"/>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H400" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="401">
@@ -13845,10 +13399,8 @@
       <c r="E401" t="inlineStr"/>
       <c r="F401" t="inlineStr"/>
       <c r="G401" t="inlineStr"/>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H401" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="402">
@@ -13871,10 +13423,8 @@
       <c r="E402" t="inlineStr"/>
       <c r="F402" t="inlineStr"/>
       <c r="G402" t="inlineStr"/>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H402" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="403">
@@ -13897,10 +13447,8 @@
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
       <c r="G403" t="inlineStr"/>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H403" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="404">
@@ -13923,10 +13471,8 @@
       <c r="E404" t="inlineStr"/>
       <c r="F404" t="inlineStr"/>
       <c r="G404" t="inlineStr"/>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H404" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="405">
@@ -13953,10 +13499,8 @@
       </c>
       <c r="F405" t="inlineStr"/>
       <c r="G405" t="inlineStr"/>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H405" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="406">
@@ -13987,10 +13531,8 @@
           <t>-1.4%</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H406" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="407">
@@ -14025,10 +13567,8 @@
           <t>-0.6%</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H407" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="408">
@@ -14055,10 +13595,8 @@
       </c>
       <c r="F408" t="inlineStr"/>
       <c r="G408" t="inlineStr"/>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H408" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="409">
@@ -14081,10 +13619,8 @@
       <c r="E409" t="inlineStr"/>
       <c r="F409" t="inlineStr"/>
       <c r="G409" t="inlineStr"/>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H409" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="410">
@@ -14111,10 +13647,8 @@
           <t>45.0K</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H410" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="411">
@@ -14137,124 +13671,142 @@
       </c>
       <c r="F411" t="inlineStr"/>
       <c r="G411" t="inlineStr"/>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H411" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr"/>
-      <c r="C412" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Employment ChangeDEC</t>
+        </is>
+      </c>
       <c r="D412" t="inlineStr"/>
-      <c r="E412" t="inlineStr"/>
-      <c r="F412" t="inlineStr"/>
-      <c r="G412" t="inlineStr"/>
-      <c r="H412" t="inlineStr"/>
+      <c r="E412" t="inlineStr">
+        <is>
+          <t>50.5K</t>
+        </is>
+      </c>
+      <c r="F412" t="inlineStr">
+        <is>
+          <t>24.5K</t>
+        </is>
+      </c>
+      <c r="G412" t="inlineStr">
+        <is>
+          <t>11.0K</t>
+        </is>
+      </c>
+      <c r="H412" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Coincident Index PrelNOV</t>
+          <t>Full Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr">
         <is>
-          <t>116.8</t>
+          <t>54.2K</t>
         </is>
       </c>
       <c r="F413" t="inlineStr"/>
       <c r="G413" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>10K</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Leading Economic Index PrelNOV</t>
+          <t>Part Time Employment ChgDEC</t>
         </is>
       </c>
       <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr">
         <is>
-          <t>108.6</t>
-        </is>
-      </c>
-      <c r="F414" t="inlineStr">
-        <is>
-          <t>107.2</t>
-        </is>
-      </c>
+          <t>-3.6K</t>
+        </is>
+      </c>
+      <c r="F414" t="inlineStr"/>
       <c r="G414" t="inlineStr">
         <is>
-          <t>107.8</t>
+          <t>1K</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
-          <t>-3.1%</t>
+          <t>65.1%</t>
         </is>
       </c>
       <c r="F415" t="inlineStr"/>
       <c r="G415" t="inlineStr">
         <is>
-          <t>-2.6%</t>
+          <t>65%</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
@@ -14266,63 +13818,67 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Unemployment RateNOV</t>
+          <t>Average Hourly Wages YoYDEC</t>
         </is>
       </c>
       <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
-          <t>8.8%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="F416" t="inlineStr"/>
       <c r="G416" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Building Permits MoMNOV</t>
         </is>
       </c>
       <c r="D417" t="inlineStr"/>
       <c r="E417" t="inlineStr">
         <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="F417" t="inlineStr"/>
+          <t>-3.1%</t>
+        </is>
+      </c>
+      <c r="F417" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>1.0%</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
@@ -14334,177 +13890,181 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Participation RateNOV</t>
+          <t>Non Farm PayrollsDEC</t>
         </is>
       </c>
       <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
-          <t>54.7%</t>
-        </is>
-      </c>
-      <c r="F418" t="inlineStr"/>
+          <t>227K</t>
+        </is>
+      </c>
+      <c r="F418" t="inlineStr">
+        <is>
+          <t>150K</t>
+        </is>
+      </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>54.8%</t>
+          <t>200K</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Unemployment RateDEC</t>
         </is>
       </c>
       <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.30%</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Household Consumption MoMNOV</t>
+          <t>Average Hourly Earnings MoMDEC</t>
         </is>
       </c>
       <c r="D420" t="inlineStr"/>
       <c r="E420" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Average Hourly Earnings YoY</t>
         </is>
       </c>
       <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="F421" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="F421" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Participation RateDEC</t>
         </is>
       </c>
       <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="F422" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>62.5%</t>
+        </is>
+      </c>
+      <c r="F422" t="inlineStr"/>
       <c r="G422" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>62.8%</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
@@ -14516,29 +14076,33 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Average Weekly HoursDEC</t>
         </is>
       </c>
       <c r="D423" t="inlineStr"/>
       <c r="E423" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="F423" t="inlineStr"/>
+          <t>34.3</t>
+        </is>
+      </c>
+      <c r="F423" t="inlineStr">
+        <is>
+          <t>34.3</t>
+        </is>
+      </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>34.3</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
@@ -14550,27 +14114,31 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>10-Year Bund Auction</t>
+          <t>Government PayrollsDEC</t>
         </is>
       </c>
       <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
-          <t>2.07%</t>
+          <t>33K</t>
         </is>
       </c>
       <c r="F424" t="inlineStr"/>
-      <c r="G424" t="inlineStr"/>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>15K</t>
+        </is>
+      </c>
       <c r="H424" t="inlineStr">
         <is>
           <t>3</t>
@@ -14580,83 +14148,103 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Manufacturing PayrollsDEC</t>
         </is>
       </c>
       <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>22K</t>
         </is>
       </c>
       <c r="F425" t="inlineStr"/>
-      <c r="G425" t="inlineStr"/>
+      <c r="G425" t="inlineStr">
+        <is>
+          <t>29K</t>
+        </is>
+      </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYNOV</t>
+          <t>Nonfarm Payrolls PrivateDEC</t>
         </is>
       </c>
       <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
-          <t>4.1%</t>
-        </is>
-      </c>
-      <c r="F426" t="inlineStr"/>
-      <c r="G426" t="inlineStr"/>
+          <t>194K</t>
+        </is>
+      </c>
+      <c r="F426" t="inlineStr">
+        <is>
+          <t>130K</t>
+        </is>
+      </c>
+      <c r="G426" t="inlineStr">
+        <is>
+          <t>185K</t>
+        </is>
+      </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>06:30 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesJAN/03</t>
+          <t>U-6 Unemployment Rate</t>
         </is>
       </c>
       <c r="D427" t="inlineStr"/>
-      <c r="E427" t="inlineStr"/>
+      <c r="E427" t="inlineStr">
+        <is>
+          <t>7.8%</t>
+        </is>
+      </c>
       <c r="F427" t="inlineStr"/>
-      <c r="G427" t="inlineStr"/>
+      <c r="G427" t="inlineStr">
+        <is>
+          <t>7.9%</t>
+        </is>
+      </c>
       <c r="H427" t="inlineStr">
         <is>
           <t>3</t>
@@ -14666,97 +14254,101 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D428" t="inlineStr"/>
       <c r="E428" t="inlineStr">
         <is>
-          <t>0.39%</t>
+          <t>€12.5B</t>
         </is>
       </c>
       <c r="F428" t="inlineStr"/>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>€22.5B</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Michigan Consumer Sentiment PrelJAN</t>
         </is>
       </c>
       <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
-          <t>4.87%</t>
-        </is>
-      </c>
-      <c r="F429" t="inlineStr"/>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="F429" t="inlineStr">
+        <is>
+          <t>74.5</t>
+        </is>
+      </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>4.9%</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
-          <t>-1.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F430" t="inlineStr"/>
       <c r="G430" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3.2%</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
@@ -14768,29 +14360,29 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Michigan Consumer Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
-          <t>-2.2%</t>
+          <t>73.3</t>
         </is>
       </c>
       <c r="F431" t="inlineStr"/>
       <c r="G431" t="inlineStr">
         <is>
-          <t>-1.4%</t>
+          <t>74</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
@@ -14802,29 +14394,29 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Car Production MoMDEC</t>
+          <t>Michigan Current Conditions PrelJAN</t>
         </is>
       </c>
       <c r="D432" t="inlineStr"/>
       <c r="E432" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>75.1</t>
         </is>
       </c>
       <c r="F432" t="inlineStr"/>
       <c r="G432" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>78</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
@@ -14836,29 +14428,29 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>New Car Registrations MoMDEC</t>
+          <t>Michigan Inflation Expectations PrelJAN</t>
         </is>
       </c>
       <c r="D433" t="inlineStr"/>
       <c r="E433" t="inlineStr">
         <is>
-          <t>-4.3%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="F433" t="inlineStr"/>
       <c r="G433" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
@@ -14870,209 +14462,173 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>WASDE Report</t>
         </is>
       </c>
       <c r="D434" t="inlineStr"/>
-      <c r="E434" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="F434" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
-      <c r="G434" t="inlineStr">
-        <is>
-          <t>6.8%</t>
-        </is>
-      </c>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+      <c r="G434" t="inlineStr"/>
       <c r="H434" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Employment ChangeDEC</t>
+          <t>Baker Hughes Oil Rig CountJAN/10</t>
         </is>
       </c>
       <c r="D435" t="inlineStr"/>
       <c r="E435" t="inlineStr">
         <is>
-          <t>50.5K</t>
-        </is>
-      </c>
-      <c r="F435" t="inlineStr">
-        <is>
-          <t>24.5K</t>
-        </is>
-      </c>
-      <c r="G435" t="inlineStr">
-        <is>
-          <t>11.0K</t>
-        </is>
-      </c>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="F435" t="inlineStr"/>
+      <c r="G435" t="inlineStr"/>
       <c r="H435" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Full Time Employment ChgDEC</t>
+          <t>Baker Hughes Total Rigs CountJAN/10</t>
         </is>
       </c>
       <c r="D436" t="inlineStr"/>
       <c r="E436" t="inlineStr">
         <is>
-          <t>54.2K</t>
+          <t>588</t>
         </is>
       </c>
       <c r="F436" t="inlineStr"/>
-      <c r="G436" t="inlineStr">
-        <is>
-          <t>10K</t>
-        </is>
-      </c>
+      <c r="G436" t="inlineStr"/>
       <c r="H436" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A437" t="inlineStr"/>
       <c r="B437" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Part Time Employment ChgDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D437" t="inlineStr"/>
       <c r="E437" t="inlineStr">
         <is>
-          <t>-3.6K</t>
+          <t>5.0%</t>
         </is>
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr">
         <is>
-          <t>1K</t>
+          <t>4.7%</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A438" t="inlineStr"/>
       <c r="B438" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>New Yuan LoansDEC</t>
         </is>
       </c>
       <c r="D438" t="inlineStr"/>
       <c r="E438" t="inlineStr">
         <is>
-          <t>65.1%</t>
+          <t>CNY580B</t>
         </is>
       </c>
       <c r="F438" t="inlineStr"/>
       <c r="G438" t="inlineStr">
         <is>
-          <t>65%</t>
+          <t>CNY690.0B</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A439" t="inlineStr"/>
       <c r="B439" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Average Hourly Wages YoYDEC</t>
+          <t>M2 Money Supply YoYDEC</t>
         </is>
       </c>
       <c r="D439" t="inlineStr"/>
       <c r="E439" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="F439" t="inlineStr"/>
-      <c r="G439" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
+          <t>7.1%</t>
+        </is>
+      </c>
+      <c r="F439" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="G439" t="inlineStr"/>
       <c r="H439" t="inlineStr">
         <is>
           <t>3</t>
@@ -15080,35 +14636,27 @@
       </c>
     </row>
     <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A440" t="inlineStr"/>
       <c r="B440" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Building Permits MoMNOV</t>
+          <t>Outstanding Loan Growth YoYDEC</t>
         </is>
       </c>
       <c r="D440" t="inlineStr"/>
       <c r="E440" t="inlineStr">
         <is>
-          <t>-3.1%</t>
-        </is>
-      </c>
-      <c r="F440" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>7.7%</t>
+        </is>
+      </c>
+      <c r="F440" t="inlineStr"/>
       <c r="G440" t="inlineStr">
         <is>
-          <t>1.0%</t>
+          <t>7.5%</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
@@ -15118,149 +14666,113 @@
       </c>
     </row>
     <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A441" t="inlineStr"/>
       <c r="B441" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>Total Social FinancingDEC</t>
         </is>
       </c>
       <c r="D441" t="inlineStr"/>
       <c r="E441" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="F441" t="inlineStr">
-        <is>
-          <t>150K</t>
-        </is>
-      </c>
+          <t>CNY2340B</t>
+        </is>
+      </c>
+      <c r="F441" t="inlineStr"/>
       <c r="G441" t="inlineStr">
         <is>
-          <t>200K</t>
+          <t>CNY1850.0B</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C442" t="inlineStr">
-        <is>
-          <t>Unemployment RateDEC</t>
-        </is>
-      </c>
+          <t>Saturday January 11 2025</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr"/>
+      <c r="C442" t="inlineStr"/>
       <c r="D442" t="inlineStr"/>
-      <c r="E442" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F442" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G442" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E442" t="inlineStr"/>
+      <c r="F442" t="inlineStr"/>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="G443" t="inlineStr">
+        <is>
           <t>0.4%</t>
         </is>
       </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr"/>
       <c r="G444" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
@@ -15272,29 +14784,33 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>08:30 PM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Participation RateDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>62.5%</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr"/>
+          <t>-2.5%</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr">
+        <is>
+          <t>-2.4%</t>
+        </is>
+      </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>62.8%</t>
+          <t>-2.8%</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
@@ -15306,173 +14822,137 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>34.3</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>34.3</t>
-        </is>
-      </c>
+          <t>$97.44B</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
       <c r="G446" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>$ 85B</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>6.7%</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>15K</t>
-        </is>
-      </c>
+      <c r="G447" t="inlineStr"/>
       <c r="H447" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:00 PM</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>22K</t>
+          <t>-3.9%</t>
         </is>
       </c>
       <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr">
-        <is>
-          <t>29K</t>
-        </is>
-      </c>
+      <c r="G448" t="inlineStr"/>
       <c r="H448" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C449" t="inlineStr">
-        <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
-        </is>
-      </c>
+          <t>Sunday January 12 2025</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
       <c r="D449" t="inlineStr"/>
-      <c r="E449" t="inlineStr">
-        <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="F449" t="inlineStr">
-        <is>
-          <t>130K</t>
-        </is>
-      </c>
-      <c r="G449" t="inlineStr">
-        <is>
-          <t>185K</t>
-        </is>
-      </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr"/>
+      <c r="H449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>ANZ-Indeed Job Ads MoMDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>-1.3%</t>
         </is>
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
@@ -15484,29 +14964,29 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>TD-MI Inflation Gauge MoMDEC</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>€12.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F451" t="inlineStr"/>
       <c r="G451" t="inlineStr">
         <is>
-          <t>€22.5B</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
@@ -15518,69 +14998,41 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C452" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
-        </is>
-      </c>
+          <t>Monday January 13 2025</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr"/>
+      <c r="C452" t="inlineStr"/>
       <c r="D452" t="inlineStr"/>
-      <c r="E452" t="inlineStr">
-        <is>
-          <t>74.0</t>
-        </is>
-      </c>
-      <c r="F452" t="inlineStr">
-        <is>
-          <t>74.5</t>
-        </is>
-      </c>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="E452" t="inlineStr"/>
+      <c r="F452" t="inlineStr"/>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$1.88B</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
-      <c r="G453" t="inlineStr">
-        <is>
-          <t>3.2%</t>
-        </is>
-      </c>
+      <c r="G453" t="inlineStr"/>
       <c r="H453" t="inlineStr">
         <is>
           <t>3</t>
@@ -15590,31 +15042,27 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Retail Sales MoMNOV</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
-      <c r="G454" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+      <c r="G454" t="inlineStr"/>
       <c r="H454" t="inlineStr">
         <is>
           <t>3</t>
@@ -15624,31 +15072,27 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Retail Sales YoYNOV</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>15.0%</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
-      <c r="G455" t="inlineStr">
-        <is>
-          <t>78</t>
-        </is>
-      </c>
+      <c r="G455" t="inlineStr"/>
       <c r="H455" t="inlineStr">
         <is>
           <t>3</t>
@@ -15658,87 +15102,95 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Manufacturing Production MoMNOV</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
+      <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
-      <c r="E457" t="inlineStr"/>
+      <c r="E457" t="inlineStr">
+        <is>
+          <t>5.48%</t>
+        </is>
+      </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr"/>
+      <c r="G457" t="inlineStr">
+        <is>
+          <t>6.0%</t>
+        </is>
+      </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr"/>
+      <c r="G458" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H458" t="inlineStr">
         <is>
           <t>3</t>
@@ -15748,27 +15200,31 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>NIESR Monthly GDP TrackerDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
       <c r="E459" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15776,29 +15232,25 @@
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="inlineStr"/>
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>12-Month BTF Auction</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>5.0%</t>
-        </is>
-      </c>
+      <c r="E460" t="inlineStr"/>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr">
-        <is>
-          <t>4.7%</t>
-        </is>
-      </c>
+      <c r="G460" t="inlineStr"/>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15806,29 +15258,25 @@
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="inlineStr"/>
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>New Yuan LoansDEC</t>
+          <t>3-Month BTF Auction</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>CNY580B</t>
-        </is>
-      </c>
+      <c r="E461" t="inlineStr"/>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr">
-        <is>
-          <t>CNY690.0B</t>
-        </is>
-      </c>
+      <c r="G461" t="inlineStr"/>
       <c r="H461" t="inlineStr">
         <is>
           <t>3</t>
@@ -15836,28 +15284,24 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="inlineStr"/>
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>09:00 AM</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>M2 Money Supply YoYDEC</t>
+          <t>6-Month BTF Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>7.1%</t>
-        </is>
-      </c>
-      <c r="F462" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
       <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
@@ -15866,27 +15310,31 @@
       </c>
     </row>
     <row r="463">
-      <c r="A463" t="inlineStr"/>
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>11:00 AM</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Outstanding Loan Growth YoYDEC</t>
+          <t>Consumer Inflation ExpectationsDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
       <c r="E463" t="inlineStr">
         <is>
-          <t>7.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F463" t="inlineStr"/>
       <c r="G463" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>2.8%</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
@@ -15896,29 +15344,25 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" t="inlineStr"/>
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>11:30 AM</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>Total Social FinancingDEC</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr">
-        <is>
-          <t>CNY2340B</t>
-        </is>
-      </c>
+      <c r="E464" t="inlineStr"/>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr">
-        <is>
-          <t>CNY1850.0B</t>
-        </is>
-      </c>
+      <c r="G464" t="inlineStr"/>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15928,181 +15372,169 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr"/>
-      <c r="C465" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr"/>
       <c r="F465" t="inlineStr"/>
       <c r="G465" t="inlineStr"/>
-      <c r="H465" t="inlineStr"/>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F466" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G466" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr"/>
       <c r="H466" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
-      <c r="G467" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F468" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G468" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F468" t="inlineStr"/>
+      <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
-      <c r="G469" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
+      <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
       <c r="E470" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F470" t="inlineStr"/>
@@ -16116,23 +15548,23 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
@@ -16146,43 +15578,63 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr"/>
-      <c r="C472" t="inlineStr"/>
+          <t>06:50 PM</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D472" t="inlineStr"/>
-      <c r="E472" t="inlineStr"/>
+      <c r="E472" t="inlineStr">
+        <is>
+          <t>¥2457B</t>
+        </is>
+      </c>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr"/>
-      <c r="H472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
       <c r="G473" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>3.1%</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
@@ -16194,7 +15646,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -16204,21 +15656,17 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G474" t="inlineStr"/>
       <c r="H474" t="inlineStr">
         <is>
           <t>3</t>
@@ -16228,37 +15676,53 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr"/>
-      <c r="C475" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D475" t="inlineStr"/>
-      <c r="E475" t="inlineStr"/>
+      <c r="E475" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
-      <c r="H475" t="inlineStr"/>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
@@ -16270,25 +15734,21 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A477" t="inlineStr"/>
       <c r="B477" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
@@ -16300,11 +15760,7 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A478" t="inlineStr"/>
       <c r="B478" t="inlineStr">
         <is>
           <t>TR</t>
@@ -16312,13 +15768,13 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -16330,97 +15786,81 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A479" t="inlineStr"/>
       <c r="B479" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
       <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A480" t="inlineStr"/>
       <c r="B480" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A481" t="inlineStr"/>
       <c r="B481" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F481" t="inlineStr"/>
-      <c r="G481" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
         <is>
           <t>3</t>
@@ -16430,57 +15870,45 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C482" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
       <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E482" t="inlineStr"/>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G482" t="inlineStr"/>
+      <c r="H482" t="inlineStr"/>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
-      <c r="E483" t="inlineStr"/>
+      <c r="E483" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F483" t="inlineStr"/>
-      <c r="G483" t="inlineStr"/>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H483" t="inlineStr">
         <is>
           <t>3</t>
@@ -16490,23 +15918,31 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -16516,17 +15952,17 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
@@ -16542,31 +15978,23 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E486" t="inlineStr"/>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G486" t="inlineStr"/>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16576,23 +16004,31 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr"/>
+      <c r="E487" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H487" t="inlineStr">
         <is>
           <t>3</t>
@@ -16602,23 +16038,31 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
-      <c r="E488" t="inlineStr"/>
+      <c r="E488" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F488" t="inlineStr"/>
-      <c r="G488" t="inlineStr"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H488" t="inlineStr">
         <is>
           <t>3</t>
@@ -16628,27 +16072,31 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16658,23 +16106,23 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
@@ -16688,185 +16136,169 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
       <c r="H491" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
       <c r="H492" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D493" t="inlineStr"/>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
       <c r="H493" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E494" t="inlineStr"/>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G495" t="inlineStr"/>
       <c r="H495" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G496" t="inlineStr"/>
       <c r="H496" t="inlineStr">
         <is>
           <t>3</t>
@@ -16876,87 +16308,95 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
-      <c r="G497" t="inlineStr"/>
+      <c r="G497" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
       <c r="G498" t="inlineStr"/>
       <c r="H498" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
-      <c r="G499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H499" t="inlineStr">
         <is>
           <t>3</t>
@@ -16964,25 +16404,33 @@
       </c>
     </row>
     <row r="500">
-      <c r="A500" t="inlineStr"/>
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
-      <c r="G500" t="inlineStr"/>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H500" t="inlineStr">
         <is>
           <t>3</t>
@@ -16990,21 +16438,25 @@
       </c>
     </row>
     <row r="501">
-      <c r="A501" t="inlineStr"/>
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F501" t="inlineStr"/>
@@ -17016,21 +16468,25 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" t="inlineStr"/>
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
@@ -17042,27 +16498,31 @@
       </c>
     </row>
     <row r="503">
-      <c r="A503" t="inlineStr"/>
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -17072,23 +16532,23 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" t="inlineStr"/>
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
-      <c r="E504" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E504" t="inlineStr"/>
       <c r="F504" t="inlineStr"/>
       <c r="G504" t="inlineStr"/>
       <c r="H504" t="inlineStr">
@@ -17100,43 +16560,59 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr"/>
-      <c r="C505" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D505" t="inlineStr"/>
-      <c r="E505" t="inlineStr"/>
+      <c r="E505" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F505" t="inlineStr"/>
       <c r="G505" t="inlineStr"/>
-      <c r="H505" t="inlineStr"/>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
@@ -17148,29 +16624,29 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -17182,23 +16658,31 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
-      <c r="E508" t="inlineStr"/>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr"/>
+      <c r="G508" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -17208,23 +16692,31 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
-      <c r="E509" t="inlineStr"/>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F509" t="inlineStr"/>
-      <c r="G509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H509" t="inlineStr">
         <is>
           <t>3</t>
@@ -17234,99 +16726,87 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E510" t="inlineStr"/>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G510" t="inlineStr"/>
       <c r="H510" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>$ 2.8B</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
-      <c r="G512" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G512" t="inlineStr"/>
       <c r="H512" t="inlineStr">
         <is>
           <t>3</t>
@@ -17336,23 +16816,23 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
@@ -17364,55 +16844,47 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A514" t="inlineStr"/>
       <c r="B514" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
       <c r="G514" t="inlineStr"/>
       <c r="H514" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A515" t="inlineStr"/>
       <c r="B515" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F515" t="inlineStr"/>
@@ -17426,47 +16898,39 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C516" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
       <c r="D516" t="inlineStr"/>
       <c r="E516" t="inlineStr"/>
       <c r="F516" t="inlineStr"/>
       <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H516" t="inlineStr"/>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
-      <c r="E517" t="inlineStr"/>
+      <c r="E517" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F517" t="inlineStr"/>
       <c r="G517" t="inlineStr"/>
       <c r="H517" t="inlineStr">
@@ -17478,27 +16942,31 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
-      <c r="G518" t="inlineStr"/>
+      <c r="G518" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H518" t="inlineStr">
         <is>
           <t>3</t>
@@ -17508,7 +16976,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -17518,179 +16986,191 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
-      <c r="G519" t="inlineStr"/>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
       <c r="G520" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H520" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr"/>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H521" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
       <c r="G522" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H522" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
       <c r="G523" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H523" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
           <t>3</t>
@@ -17700,27 +17180,31 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr"/>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H525" t="inlineStr">
         <is>
           <t>3</t>
@@ -17730,29 +17214,29 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
       <c r="E526" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F526" t="inlineStr"/>
       <c r="G526" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H526" t="inlineStr">
@@ -17764,23 +17248,31 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr"/>
+      <c r="E527" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr"/>
+      <c r="G527" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
       <c r="H527" t="inlineStr">
         <is>
           <t>3</t>
@@ -17790,27 +17282,31 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>10:05 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
       <c r="E528" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr"/>
+      <c r="G528" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H528" t="inlineStr">
         <is>
           <t>3</t>
@@ -17820,29 +17316,29 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
       <c r="E529" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F529" t="inlineStr"/>
       <c r="G529" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H529" t="inlineStr">
@@ -17854,29 +17350,29 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
       <c r="E530" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F530" t="inlineStr"/>
       <c r="G530" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H530" t="inlineStr">
@@ -17888,31 +17384,27 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17922,29 +17414,29 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -17956,23 +17448,31 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
-      <c r="E533" t="inlineStr"/>
+      <c r="E533" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr"/>
+      <c r="G533" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H533" t="inlineStr">
         <is>
           <t>2</t>
@@ -17982,29 +17482,29 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F534" t="inlineStr"/>
       <c r="G534" t="inlineStr">
         <is>
-          <t>$ 2.8B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
@@ -18016,23 +17516,23 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
@@ -18046,27 +17546,31 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr"/>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H536" t="inlineStr">
         <is>
           <t>3</t>
@@ -18074,21 +17578,25 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr"/>
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
@@ -18100,25 +17608,37 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr"/>
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F538" t="inlineStr"/>
-      <c r="G538" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G538" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H538" t="inlineStr">
         <is>
           <t>3</t>
@@ -18128,41 +17648,73 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr"/>
-      <c r="C539" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoY FinalDEC</t>
+        </is>
+      </c>
       <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr"/>
-      <c r="F539" t="inlineStr"/>
-      <c r="G539" t="inlineStr"/>
-      <c r="H539" t="inlineStr"/>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F540" t="inlineStr"/>
-      <c r="G540" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H540" t="inlineStr">
         <is>
           <t>3</t>
@@ -18172,29 +17724,29 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F541" t="inlineStr"/>
       <c r="G541" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H541" t="inlineStr">
@@ -18206,7 +17758,7 @@
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
@@ -18216,55 +17768,51 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
       <c r="E542" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F542" t="inlineStr"/>
       <c r="G542" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H542" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
       <c r="E543" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G543" t="inlineStr"/>
       <c r="H543" t="inlineStr">
         <is>
           <t>2</t>
@@ -18274,41 +17822,37 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
       <c r="E544" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G544" t="inlineStr"/>
       <c r="H544" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
@@ -18318,81 +17862,69 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
       <c r="E545" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G545" t="inlineStr"/>
       <c r="H545" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
       <c r="E546" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A547" t="inlineStr"/>
       <c r="B547" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
       <c r="E547" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F547" t="inlineStr"/>
@@ -18408,31 +17940,27 @@
       </c>
     </row>
     <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A548" t="inlineStr"/>
       <c r="B548" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
       <c r="E548" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H548" t="inlineStr">
@@ -18442,31 +17970,27 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A549" t="inlineStr"/>
       <c r="B549" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
       <c r="E549" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F549" t="inlineStr"/>
       <c r="G549" t="inlineStr">
         <is>
-          <t>2.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H549" t="inlineStr">
@@ -18476,746 +18000,22 @@
       </c>
     </row>
     <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A550" t="inlineStr"/>
       <c r="B550" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E550" t="inlineStr"/>
       <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G550" t="inlineStr"/>
       <c r="H550" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C551" t="inlineStr">
-        <is>
-          <t>PPI Input YoYDEC</t>
-        </is>
-      </c>
-      <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C552" t="inlineStr">
-        <is>
-          <t>PPI Output MoMDEC</t>
-        </is>
-      </c>
-      <c r="D552" t="inlineStr"/>
-      <c r="E552" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C553" t="inlineStr">
-        <is>
-          <t>PPI Output YoYDEC</t>
-        </is>
-      </c>
-      <c r="D553" t="inlineStr"/>
-      <c r="E553" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="F553" t="inlineStr"/>
-      <c r="G553" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C554" t="inlineStr">
-        <is>
-          <t>Retail Price Index MoMDEC</t>
-        </is>
-      </c>
-      <c r="D554" t="inlineStr"/>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="F554" t="inlineStr"/>
-      <c r="G554" t="inlineStr"/>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C555" t="inlineStr">
-        <is>
-          <t>Retail Price Index YoYDEC</t>
-        </is>
-      </c>
-      <c r="D555" t="inlineStr"/>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr"/>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C556" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D556" t="inlineStr"/>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C557" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D557" t="inlineStr"/>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr"/>
-      <c r="G557" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C558" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D558" t="inlineStr"/>
-      <c r="E558" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
-      <c r="F558" t="inlineStr"/>
-      <c r="G558" t="inlineStr"/>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
-      <c r="B559" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="C559" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D559" t="inlineStr"/>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B560" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C560" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr"/>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B561" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C561" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D561" t="inlineStr"/>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G561" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B562" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C562" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D562" t="inlineStr"/>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F562" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G562" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B563" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C563" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D563" t="inlineStr"/>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F563" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G563" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D565" t="inlineStr"/>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr"/>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr"/>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>10-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
-      <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr"/>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr"/>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr"/>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr"/>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr"/>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H550"/>
+  <dimension ref="A1:H538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13707,10 +13707,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H412" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="413">
@@ -13741,10 +13739,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -13775,10 +13771,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -13809,10 +13803,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H415" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -13843,10 +13835,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H416" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="417">
@@ -13881,10 +13871,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -13919,10 +13907,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H418" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="419">
@@ -13957,10 +13943,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -13995,10 +13979,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H420" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="421">
@@ -14033,10 +14015,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -14067,10 +14047,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -14105,10 +14083,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H423" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="424">
@@ -14139,10 +14115,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -14173,10 +14147,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -14211,10 +14183,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -14245,10 +14215,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -14279,10 +14247,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14317,10 +14283,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H429" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="430">
@@ -14351,10 +14315,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H430" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="431">
@@ -14385,10 +14347,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14419,10 +14379,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14453,10 +14411,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14479,10 +14435,8 @@
       <c r="E434" t="inlineStr"/>
       <c r="F434" t="inlineStr"/>
       <c r="G434" t="inlineStr"/>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -14509,10 +14463,8 @@
       </c>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr"/>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14539,10 +14491,8 @@
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr"/>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14569,10 +14519,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14599,10 +14547,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14629,10 +14575,8 @@
         </is>
       </c>
       <c r="G439" t="inlineStr"/>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14659,10 +14603,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14689,10 +14631,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14741,10 +14681,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H443" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -14775,10 +14713,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H444" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="445">
@@ -14813,10 +14749,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -14847,10 +14781,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H446" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -14877,10 +14809,8 @@
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr"/>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H447" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -14907,10 +14837,8 @@
       </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H448" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -14955,10 +14883,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H450" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="451">
@@ -14989,46 +14915,60 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr"/>
-      <c r="C452" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Private House Approvals MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D452" t="inlineStr"/>
-      <c r="E452" t="inlineStr"/>
+      <c r="E452" t="inlineStr">
+        <is>
+          <t>-5.2%</t>
+        </is>
+      </c>
       <c r="F452" t="inlineStr"/>
       <c r="G452" t="inlineStr"/>
-      <c r="H452" t="inlineStr"/>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D453" t="inlineStr"/>
       <c r="E453" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F453" t="inlineStr"/>
@@ -15040,25 +14980,21 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A454" t="inlineStr"/>
       <c r="B454" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>3-Year KTB Auction</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.53%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
@@ -15070,11 +15006,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A455" t="inlineStr"/>
       <c r="B455" t="inlineStr">
         <is>
           <t>TR</t>
@@ -15082,13 +15014,13 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
@@ -15100,97 +15032,81 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A456" t="inlineStr"/>
       <c r="B456" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
       <c r="G456" t="inlineStr"/>
       <c r="H456" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A457" t="inlineStr"/>
       <c r="B457" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
       <c r="G457" t="inlineStr">
         <is>
-          <t>6.0%</t>
+          <t>6.4%</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A458" t="inlineStr"/>
       <c r="B458" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D458" t="inlineStr"/>
       <c r="E458" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
       <c r="H458" t="inlineStr">
         <is>
           <t>3</t>
@@ -15200,57 +15116,45 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>NIESR Monthly GDP TrackerDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr"/>
       <c r="D459" t="inlineStr"/>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E459" t="inlineStr"/>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G459" t="inlineStr"/>
+      <c r="H459" t="inlineStr"/>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr"/>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15260,23 +15164,31 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
-      <c r="E461" t="inlineStr"/>
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F461" t="inlineStr"/>
-      <c r="G461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H461" t="inlineStr">
         <is>
           <t>3</t>
@@ -15286,17 +15198,17 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
@@ -15312,31 +15224,23 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E463" t="inlineStr"/>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G463" t="inlineStr"/>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15346,23 +15250,31 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15372,23 +15284,31 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
-      <c r="E465" t="inlineStr"/>
+      <c r="E465" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -15398,27 +15318,31 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
-      <c r="G466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H466" t="inlineStr">
         <is>
           <t>3</t>
@@ -15428,23 +15352,23 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
@@ -15458,185 +15382,169 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
       <c r="E469" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
-      <c r="E471" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E471" t="inlineStr"/>
       <c r="F471" t="inlineStr"/>
       <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G473" t="inlineStr"/>
       <c r="H473" t="inlineStr">
         <is>
           <t>3</t>
@@ -15646,87 +15554,95 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr"/>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H476" t="inlineStr">
         <is>
           <t>3</t>
@@ -15734,25 +15650,33 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H477" t="inlineStr">
         <is>
           <t>3</t>
@@ -15760,21 +15684,25 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr"/>
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -15786,21 +15714,25 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
@@ -15812,27 +15744,31 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
       <c r="G480" t="inlineStr">
         <is>
-          <t>6.4%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
@@ -15842,23 +15778,23 @@
       </c>
     </row>
     <row r="481">
-      <c r="A481" t="inlineStr"/>
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>08:55 AM</t>
+        </is>
+      </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>Redbook YoYJAN/11</t>
         </is>
       </c>
       <c r="D481" t="inlineStr"/>
-      <c r="E481" t="inlineStr">
-        <is>
-          <t>12%</t>
-        </is>
-      </c>
+      <c r="E481" t="inlineStr"/>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
       <c r="H481" t="inlineStr">
@@ -15870,43 +15806,59 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr"/>
-      <c r="C482" t="inlineStr"/>
+          <t>10:05 AM</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+        </is>
+      </c>
       <c r="D482" t="inlineStr"/>
-      <c r="E482" t="inlineStr"/>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
       <c r="F482" t="inlineStr"/>
       <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr"/>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -15918,29 +15870,29 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
       <c r="E484" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>166%</t>
         </is>
       </c>
       <c r="F484" t="inlineStr"/>
       <c r="G484" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>116.0%</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
@@ -15952,23 +15904,31 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
@@ -15978,23 +15938,31 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
-      <c r="E486" t="inlineStr"/>
+      <c r="E486" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="F486" t="inlineStr"/>
-      <c r="G486" t="inlineStr"/>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="H486" t="inlineStr">
         <is>
           <t>3</t>
@@ -16004,99 +15972,87 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>8.92%</t>
-        </is>
-      </c>
+      <c r="E487" t="inlineStr"/>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>10.2%</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>-5.83%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr">
         <is>
-          <t>-3.2%</t>
+          <t>$ 2.8B</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
-      <c r="G489" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G489" t="inlineStr"/>
       <c r="H489" t="inlineStr">
         <is>
           <t>3</t>
@@ -16106,23 +16062,23 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
@@ -16134,55 +16090,47 @@
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A491" t="inlineStr"/>
       <c r="B491" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
       <c r="G491" t="inlineStr"/>
       <c r="H491" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A492" t="inlineStr"/>
       <c r="B492" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
       <c r="E492" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>4.3%</t>
         </is>
       </c>
       <c r="F492" t="inlineStr"/>
@@ -16196,47 +16144,39 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>3-Month Letras Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>9-Month Letras Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
-      <c r="E494" t="inlineStr"/>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="F494" t="inlineStr"/>
       <c r="G494" t="inlineStr"/>
       <c r="H494" t="inlineStr">
@@ -16248,27 +16188,31 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H495" t="inlineStr">
         <is>
           <t>3</t>
@@ -16278,7 +16222,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -16288,179 +16232,191 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
-      <c r="G496" t="inlineStr"/>
+      <c r="G496" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
         <is>
           <t>3</t>
@@ -16470,27 +16426,31 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H502" t="inlineStr">
         <is>
           <t>3</t>
@@ -16500,29 +16460,29 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -16534,23 +16494,31 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
-      <c r="E504" t="inlineStr"/>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
       <c r="H504" t="inlineStr">
         <is>
           <t>3</t>
@@ -16560,27 +16528,31 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>10:05 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H505" t="inlineStr">
         <is>
           <t>3</t>
@@ -16590,29 +16562,29 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
@@ -16624,29 +16596,29 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -16658,31 +16630,27 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G508" t="inlineStr"/>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -16692,29 +16660,29 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -16726,23 +16694,31 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr"/>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>2</t>
@@ -16752,29 +16728,29 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr">
         <is>
-          <t>$ 2.8B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -16786,23 +16762,23 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
@@ -16816,27 +16792,31 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr"/>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H513" t="inlineStr">
         <is>
           <t>3</t>
@@ -16844,21 +16824,25 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr"/>
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
@@ -16870,25 +16854,37 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr"/>
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
@@ -16898,41 +16894,73 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr"/>
-      <c r="C516" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoY FinalDEC</t>
+        </is>
+      </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
         <is>
           <t>3</t>
@@ -16942,29 +16970,29 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -16976,7 +17004,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -16986,55 +17014,51 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr">
         <is>
           <t>2</t>
@@ -17044,41 +17068,37 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -17088,89 +17108,77 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
           <t>3</t>
@@ -17180,31 +17188,27 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
         <is>
           <t>3</t>
@@ -17214,65 +17218,49 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr">
         <is>
           <t>3</t>
@@ -17282,31 +17270,23 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
           <t>3</t>
@@ -17316,31 +17296,23 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr">
         <is>
           <t>3</t>
@@ -17350,31 +17322,23 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
           <t>3</t>
@@ -17382,29 +17346,29 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A531" t="inlineStr"/>
       <c r="B531" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
+          <t>0.3%</t>
+        </is>
+      </c>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr"/>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17412,31 +17376,27 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A532" t="inlineStr"/>
       <c r="B532" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -17446,95 +17406,71 @@
       </c>
     </row>
     <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
+      <c r="A533" t="inlineStr"/>
       <c r="B533" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
       <c r="G533" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
+      <c r="A534" t="inlineStr"/>
       <c r="B534" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="E534" t="inlineStr"/>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="G534" t="inlineStr"/>
       <c r="H534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
+      <c r="A535" t="inlineStr"/>
       <c r="B535" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
-      <c r="E535" t="inlineStr">
-        <is>
-          <t>1.7%</t>
-        </is>
-      </c>
+      <c r="E535" t="inlineStr"/>
       <c r="F535" t="inlineStr"/>
       <c r="G535" t="inlineStr"/>
       <c r="H535" t="inlineStr">
@@ -17544,31 +17480,27 @@
       </c>
     </row>
     <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>02:45 AM</t>
-        </is>
-      </c>
+      <c r="A536" t="inlineStr"/>
       <c r="B536" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$ -23B</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
@@ -17578,29 +17510,29 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
+      <c r="A537" t="inlineStr"/>
       <c r="B537" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>$ 36B</t>
+        </is>
+      </c>
       <c r="H537" t="inlineStr">
         <is>
           <t>3</t>
@@ -17608,414 +17540,30 @@
       </c>
     </row>
     <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
+      <c r="A538" t="inlineStr"/>
       <c r="B538" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$69.95B</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$ 59B</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D539" t="inlineStr"/>
-      <c r="E539" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="G539" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
-        </is>
-      </c>
-      <c r="D540" t="inlineStr"/>
-      <c r="E540" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F540" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G540" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
-        </is>
-      </c>
-      <c r="D541" t="inlineStr"/>
-      <c r="E541" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>Full Year GDP Growth2025</t>
-        </is>
-      </c>
-      <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMNOV</t>
-        </is>
-      </c>
-      <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F543" t="inlineStr"/>
-      <c r="G543" t="inlineStr"/>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>EA</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYNOV</t>
-        </is>
-      </c>
-      <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
-      <c r="F544" t="inlineStr"/>
-      <c r="G544" t="inlineStr"/>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>05:00 AM</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>GB</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>10-Year Treasury Gilt Auction</t>
-        </is>
-      </c>
-      <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
-      <c r="F545" t="inlineStr"/>
-      <c r="G545" t="inlineStr"/>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>30-Year Bund Auction</t>
-        </is>
-      </c>
-      <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
-      <c r="F546" t="inlineStr"/>
-      <c r="G546" t="inlineStr"/>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr"/>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F547" t="inlineStr"/>
-      <c r="G547" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr"/>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F548" t="inlineStr"/>
-      <c r="G548" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr"/>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D549" t="inlineStr"/>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F549" t="inlineStr"/>
-      <c r="G549" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr"/>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C550" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D550" t="inlineStr"/>
-      <c r="E550" t="inlineStr"/>
-      <c r="F550" t="inlineStr"/>
-      <c r="G550" t="inlineStr"/>
-      <c r="H550" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H538"/>
+  <dimension ref="A1:H539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14638,259 +14638,281 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr"/>
-      <c r="C442" t="inlineStr"/>
+          <t>11:30 AM</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>6-Month Bill Auction</t>
+        </is>
+      </c>
       <c r="D442" t="inlineStr"/>
       <c r="E442" t="inlineStr"/>
       <c r="F442" t="inlineStr"/>
       <c r="G442" t="inlineStr"/>
-      <c r="H442" t="inlineStr"/>
+      <c r="H442" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - CornDEC</t>
         </is>
       </c>
       <c r="D443" t="inlineStr"/>
       <c r="E443" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F443" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G443" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H443" t="n">
-        <v>1</v>
+          <t>1.760B</t>
+        </is>
+      </c>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr"/>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0.342B</t>
         </is>
       </c>
       <c r="F444" t="inlineStr"/>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H444" t="n">
-        <v>2</v>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F445" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H445" t="n">
-        <v>2</v>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F446" t="inlineStr"/>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
-      <c r="H446" t="n">
-        <v>1</v>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>-2%</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
       <c r="G447" t="inlineStr"/>
-      <c r="H447" t="n">
-        <v>1</v>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="n">
-        <v>1</v>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr"/>
-      <c r="C449" t="inlineStr"/>
+          <t>06:50 PM</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>JP</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Current AccountNOV</t>
+        </is>
+      </c>
       <c r="D449" t="inlineStr"/>
-      <c r="E449" t="inlineStr"/>
+      <c r="E449" t="inlineStr">
+        <is>
+          <t>¥2457B</t>
+        </is>
+      </c>
       <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr"/>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D450" t="inlineStr"/>
       <c r="E450" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr">
         <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H450" t="n">
-        <v>3</v>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -14900,23 +14922,21 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>Building Permits MoM FinalNOV</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="F451" t="inlineStr"/>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H451" t="n">
-        <v>3</v>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="452">
@@ -17346,27 +17366,31 @@
       </c>
     </row>
     <row r="531">
-      <c r="A531" t="inlineStr"/>
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>08:00 AM</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
       <c r="G531" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$628.0B</t>
         </is>
       </c>
       <c r="H531" t="inlineStr">
@@ -17384,19 +17408,19 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F532" t="inlineStr"/>
       <c r="G532" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -17414,13 +17438,13 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>1.4%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
@@ -17439,18 +17463,26 @@
       <c r="A534" t="inlineStr"/>
       <c r="B534" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Budget BalanceDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
-      <c r="E534" t="inlineStr"/>
+      <c r="E534" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F534" t="inlineStr"/>
-      <c r="G534" t="inlineStr"/>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>2%</t>
+        </is>
+      </c>
       <c r="H534" t="inlineStr">
         <is>
           <t>3</t>
@@ -17461,12 +17493,12 @@
       <c r="A535" t="inlineStr"/>
       <c r="B535" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>OPEC Monthly Report</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
@@ -17483,26 +17515,18 @@
       <c r="A536" t="inlineStr"/>
       <c r="B536" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
-      <c r="E536" t="inlineStr">
-        <is>
-          <t>$-37.84B</t>
-        </is>
-      </c>
+      <c r="E536" t="inlineStr"/>
       <c r="F536" t="inlineStr"/>
-      <c r="G536" t="inlineStr">
-        <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
+      <c r="G536" t="inlineStr"/>
       <c r="H536" t="inlineStr">
         <is>
           <t>3</t>
@@ -17518,19 +17542,19 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>ExportsDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>$32.11B</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
       <c r="G537" t="inlineStr">
         <is>
-          <t>$ 36B</t>
+          <t>$ -23B</t>
         </is>
       </c>
       <c r="H537" t="inlineStr">
@@ -17548,22 +17572,52 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>ImportsDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>$69.95B</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
+          <t>$ 36B</t>
+        </is>
+      </c>
+      <c r="H538" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr"/>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>IN</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>ImportsDEC</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr">
+        <is>
+          <t>$69.95B</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr"/>
+      <c r="G539" t="inlineStr">
+        <is>
           <t>$ 59B</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
+      <c r="H539" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H586"/>
+  <dimension ref="A1:H563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13715,10 +13715,8 @@
           <t>6.8%</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H412" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="413">
@@ -13753,10 +13751,8 @@
           <t>11.0K</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H413" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="414">
@@ -13787,10 +13783,8 @@
           <t>10K</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H414" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="415">
@@ -13821,10 +13815,8 @@
           <t>1K</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H415" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="416">
@@ -13855,10 +13847,8 @@
           <t>65%</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H416" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="417">
@@ -13889,10 +13879,8 @@
           <t>3.9%</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H417" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="418">
@@ -13927,10 +13915,8 @@
           <t>1.0%</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H418" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="419">
@@ -13965,10 +13951,8 @@
           <t>200K</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H419" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="420">
@@ -14003,10 +13987,8 @@
           <t>4.30%</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H420" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="421">
@@ -14041,10 +14023,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H421" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="422">
@@ -14079,10 +14059,8 @@
           <t>4%</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H422" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="423">
@@ -14113,10 +14091,8 @@
           <t>62.8%</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H423" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="424">
@@ -14151,10 +14127,8 @@
           <t>34.3</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H424" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="425">
@@ -14185,10 +14159,8 @@
           <t>15K</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H425" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="426">
@@ -14219,10 +14191,8 @@
           <t>29K</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H426" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="427">
@@ -14257,10 +14227,8 @@
           <t>185K</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H427" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="428">
@@ -14291,10 +14259,8 @@
           <t>7.9%</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H428" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="429">
@@ -14325,10 +14291,8 @@
           <t>€22.5B</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H429" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="430">
@@ -14363,10 +14327,8 @@
           <t>75</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H430" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="431">
@@ -14397,10 +14359,8 @@
           <t>3.2%</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H431" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="432">
@@ -14431,10 +14391,8 @@
           <t>74</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H432" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="433">
@@ -14465,10 +14423,8 @@
           <t>78</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H433" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="434">
@@ -14499,10 +14455,8 @@
           <t>3.0%</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H434" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="435">
@@ -14525,10 +14479,8 @@
       <c r="E435" t="inlineStr"/>
       <c r="F435" t="inlineStr"/>
       <c r="G435" t="inlineStr"/>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H435" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="436">
@@ -14555,10 +14507,8 @@
       </c>
       <c r="F436" t="inlineStr"/>
       <c r="G436" t="inlineStr"/>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H436" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="437">
@@ -14585,10 +14535,8 @@
       </c>
       <c r="F437" t="inlineStr"/>
       <c r="G437" t="inlineStr"/>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H437" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="438">
@@ -14615,10 +14563,8 @@
           <t>4.7%</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H438" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="439">
@@ -14645,10 +14591,8 @@
           <t>CNY690.0B</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H439" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="440">
@@ -14675,10 +14619,8 @@
         </is>
       </c>
       <c r="G440" t="inlineStr"/>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H440" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="441">
@@ -14705,10 +14647,8 @@
           <t>7.5%</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H441" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="442">
@@ -14735,10 +14675,8 @@
           <t>CNY1850.0B</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H442" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="443">
@@ -14787,10 +14725,8 @@
           <t>0.4%</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H444" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="445">
@@ -14821,10 +14757,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H445" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="446">
@@ -14859,10 +14793,8 @@
           <t>-2.8%</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="H446" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="447">
@@ -14893,10 +14825,8 @@
           <t>$ 85B</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H447" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="448">
@@ -14923,10 +14853,8 @@
       </c>
       <c r="F448" t="inlineStr"/>
       <c r="G448" t="inlineStr"/>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H448" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="449">
@@ -14953,10 +14881,8 @@
       </c>
       <c r="F449" t="inlineStr"/>
       <c r="G449" t="inlineStr"/>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="H449" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="450">
@@ -15001,10 +14927,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H451" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="452">
@@ -15035,32 +14959,38 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="H452" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr"/>
-      <c r="C453" t="inlineStr"/>
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>KR</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>3-Year KTB Auction</t>
+        </is>
+      </c>
       <c r="D453" t="inlineStr"/>
-      <c r="E453" t="inlineStr"/>
+      <c r="E453" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
       <c r="F453" t="inlineStr"/>
       <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr"/>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A454" t="inlineStr"/>
       <c r="B454" t="inlineStr">
         <is>
           <t>TR</t>
@@ -15068,13 +14998,13 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>Auto Production YoYDEC</t>
         </is>
       </c>
       <c r="D454" t="inlineStr"/>
       <c r="E454" t="inlineStr">
         <is>
-          <t>$1.88B</t>
+          <t>-15.4%</t>
         </is>
       </c>
       <c r="F454" t="inlineStr"/>
@@ -15086,11 +15016,7 @@
       </c>
     </row>
     <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A455" t="inlineStr"/>
       <c r="B455" t="inlineStr">
         <is>
           <t>TR</t>
@@ -15098,13 +15024,13 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Retail Sales MoMNOV</t>
+          <t>Auto Sales YoYDEC</t>
         </is>
       </c>
       <c r="D455" t="inlineStr"/>
       <c r="E455" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>5.3%</t>
         </is>
       </c>
       <c r="F455" t="inlineStr"/>
@@ -15116,29 +15042,29 @@
       </c>
     </row>
     <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
+      <c r="A456" t="inlineStr"/>
       <c r="B456" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Retail Sales YoYNOV</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D456" t="inlineStr"/>
       <c r="E456" t="inlineStr">
         <is>
-          <t>15.0%</t>
+          <t>11.7%</t>
         </is>
       </c>
       <c r="F456" t="inlineStr"/>
-      <c r="G456" t="inlineStr"/>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>6.4%</t>
+        </is>
+      </c>
       <c r="H456" t="inlineStr">
         <is>
           <t>3</t>
@@ -15146,93 +15072,73 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
+      <c r="A457" t="inlineStr"/>
       <c r="B457" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Vehicle Sales YoYDEC</t>
         </is>
       </c>
       <c r="D457" t="inlineStr"/>
       <c r="E457" t="inlineStr">
         <is>
-          <t>5.48%</t>
+          <t>12%</t>
         </is>
       </c>
       <c r="F457" t="inlineStr"/>
-      <c r="G457" t="inlineStr">
-        <is>
-          <t>6.0%</t>
-        </is>
-      </c>
+      <c r="G457" t="inlineStr"/>
       <c r="H457" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C458" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
+          <t>Tuesday January 14 2025</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr"/>
+      <c r="C458" t="inlineStr"/>
       <c r="D458" t="inlineStr"/>
-      <c r="E458" t="inlineStr">
-        <is>
-          <t>-0.15%</t>
-        </is>
-      </c>
+      <c r="E458" t="inlineStr"/>
       <c r="F458" t="inlineStr"/>
-      <c r="G458" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>12-Month BTF Auction</t>
+          <t>Eco Watchers Survey CurrentDEC</t>
         </is>
       </c>
       <c r="D459" t="inlineStr"/>
-      <c r="E459" t="inlineStr"/>
+      <c r="E459" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F459" t="inlineStr"/>
-      <c r="G459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>49.8</t>
+        </is>
+      </c>
       <c r="H459" t="inlineStr">
         <is>
           <t>3</t>
@@ -15242,23 +15148,31 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>3-Month BTF Auction</t>
+          <t>Eco Watchers Survey OutlookDEC</t>
         </is>
       </c>
       <c r="D460" t="inlineStr"/>
-      <c r="E460" t="inlineStr"/>
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>49.4</t>
+        </is>
+      </c>
       <c r="F460" t="inlineStr"/>
-      <c r="G460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>49.6</t>
+        </is>
+      </c>
       <c r="H460" t="inlineStr">
         <is>
           <t>3</t>
@@ -15268,17 +15182,17 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>6-Month BTF Auction</t>
+          <t>MAS 12-Week Bill Auction</t>
         </is>
       </c>
       <c r="D461" t="inlineStr"/>
@@ -15294,31 +15208,23 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>MAS 4-Week Bill Auction</t>
         </is>
       </c>
       <c r="D462" t="inlineStr"/>
-      <c r="E462" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="E462" t="inlineStr"/>
       <c r="F462" t="inlineStr"/>
-      <c r="G462" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G462" t="inlineStr"/>
       <c r="H462" t="inlineStr">
         <is>
           <t>3</t>
@@ -15328,23 +15234,31 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>WPI Food Index YoYDEC</t>
         </is>
       </c>
       <c r="D463" t="inlineStr"/>
-      <c r="E463" t="inlineStr"/>
+      <c r="E463" t="inlineStr">
+        <is>
+          <t>8.92%</t>
+        </is>
+      </c>
       <c r="F463" t="inlineStr"/>
-      <c r="G463" t="inlineStr"/>
+      <c r="G463" t="inlineStr">
+        <is>
+          <t>10.2%</t>
+        </is>
+      </c>
       <c r="H463" t="inlineStr">
         <is>
           <t>3</t>
@@ -15354,23 +15268,31 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>WPI Fuel YoYDEC</t>
         </is>
       </c>
       <c r="D464" t="inlineStr"/>
-      <c r="E464" t="inlineStr"/>
+      <c r="E464" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
       <c r="F464" t="inlineStr"/>
-      <c r="G464" t="inlineStr"/>
+      <c r="G464" t="inlineStr">
+        <is>
+          <t>-3.2%</t>
+        </is>
+      </c>
       <c r="H464" t="inlineStr">
         <is>
           <t>3</t>
@@ -15380,27 +15302,31 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>WPI Manufacturing YoYDEC</t>
         </is>
       </c>
       <c r="D465" t="inlineStr"/>
       <c r="E465" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="F465" t="inlineStr"/>
-      <c r="G465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
       <c r="H465" t="inlineStr">
         <is>
           <t>3</t>
@@ -15410,23 +15336,23 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>Budget BalanceNOV</t>
         </is>
       </c>
       <c r="D466" t="inlineStr"/>
       <c r="E466" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>€-157.39B</t>
         </is>
       </c>
       <c r="F466" t="inlineStr"/>
@@ -15440,185 +15366,169 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D467" t="inlineStr"/>
       <c r="E467" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F467" t="inlineStr"/>
       <c r="G467" t="inlineStr"/>
       <c r="H467" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D468" t="inlineStr"/>
       <c r="E468" t="inlineStr">
         <is>
-          <t>$-367B</t>
+          <t>-3.6%</t>
         </is>
       </c>
       <c r="F468" t="inlineStr"/>
       <c r="G468" t="inlineStr"/>
       <c r="H468" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence ChangeJAN</t>
+          <t>3-Month Letras Auction</t>
         </is>
       </c>
       <c r="D469" t="inlineStr"/>
-      <c r="E469" t="inlineStr">
-        <is>
-          <t>-2%</t>
-        </is>
-      </c>
+      <c r="E469" t="inlineStr"/>
       <c r="F469" t="inlineStr"/>
       <c r="G469" t="inlineStr"/>
       <c r="H469" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
+          <t>04:40 AM</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Westpac Consumer Confidence IndexJAN</t>
+          <t>9-Month Letras Auction</t>
         </is>
       </c>
       <c r="D470" t="inlineStr"/>
-      <c r="E470" t="inlineStr">
-        <is>
-          <t>92.8</t>
-        </is>
-      </c>
+      <c r="E470" t="inlineStr"/>
       <c r="F470" t="inlineStr"/>
       <c r="G470" t="inlineStr"/>
       <c r="H470" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Current AccountNOV</t>
+          <t>20-Year Index-Linked Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D471" t="inlineStr"/>
       <c r="E471" t="inlineStr">
         <is>
-          <t>¥2457B</t>
+          <t>1.200%</t>
         </is>
       </c>
       <c r="F471" t="inlineStr"/>
-      <c r="G471" t="inlineStr">
-        <is>
-          <t>¥1990.0B</t>
-        </is>
-      </c>
+      <c r="G471" t="inlineStr"/>
       <c r="H471" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>06:50 PM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Bank Lending YoYDEC</t>
+          <t>5-Year Bobl Auction</t>
         </is>
       </c>
       <c r="D472" t="inlineStr"/>
       <c r="E472" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>2.04%</t>
         </is>
       </c>
       <c r="F472" t="inlineStr"/>
-      <c r="G472" t="inlineStr">
-        <is>
-          <t>3.1%</t>
-        </is>
-      </c>
+      <c r="G472" t="inlineStr"/>
       <c r="H472" t="inlineStr">
         <is>
           <t>3</t>
@@ -15628,27 +15538,31 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalNOV</t>
+          <t>NFIB Business Optimism IndexDEC</t>
         </is>
       </c>
       <c r="D473" t="inlineStr"/>
       <c r="E473" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>101.7</t>
         </is>
       </c>
       <c r="F473" t="inlineStr"/>
-      <c r="G473" t="inlineStr"/>
+      <c r="G473" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
       <c r="H473" t="inlineStr">
         <is>
           <t>3</t>
@@ -15658,83 +15572,95 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Private House Approvals MoM FinalNOV</t>
+          <t>PPI MoMDEC</t>
         </is>
       </c>
       <c r="D474" t="inlineStr"/>
       <c r="E474" t="inlineStr">
         <is>
-          <t>-5.2%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F474" t="inlineStr"/>
-      <c r="G474" t="inlineStr"/>
+      <c r="G474" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>10:35 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>5-Year JGB Auction</t>
+          <t>Core PPI MoMDEC</t>
         </is>
       </c>
       <c r="D475" t="inlineStr"/>
       <c r="E475" t="inlineStr">
         <is>
-          <t>0.734%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="F475" t="inlineStr"/>
       <c r="G475" t="inlineStr"/>
       <c r="H475" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="476">
-      <c r="A476" t="inlineStr"/>
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>3-Year KTB Auction</t>
+          <t>Core PPI YoYDEC</t>
         </is>
       </c>
       <c r="D476" t="inlineStr"/>
       <c r="E476" t="inlineStr">
         <is>
-          <t>2.53%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="F476" t="inlineStr"/>
-      <c r="G476" t="inlineStr"/>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>3.2%</t>
+        </is>
+      </c>
       <c r="H476" t="inlineStr">
         <is>
           <t>3</t>
@@ -15742,25 +15668,33 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" t="inlineStr"/>
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Auto Production YoYDEC</t>
+          <t>PPIDEC</t>
         </is>
       </c>
       <c r="D477" t="inlineStr"/>
       <c r="E477" t="inlineStr">
         <is>
-          <t>-15.4%</t>
+          <t>146.493</t>
         </is>
       </c>
       <c r="F477" t="inlineStr"/>
-      <c r="G477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>146.4</t>
+        </is>
+      </c>
       <c r="H477" t="inlineStr">
         <is>
           <t>3</t>
@@ -15768,21 +15702,25 @@
       </c>
     </row>
     <row r="478">
-      <c r="A478" t="inlineStr"/>
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Auto Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
         </is>
       </c>
       <c r="D478" t="inlineStr"/>
       <c r="E478" t="inlineStr">
         <is>
-          <t>5.3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F478" t="inlineStr"/>
@@ -15794,29 +15732,29 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" t="inlineStr"/>
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
         </is>
       </c>
       <c r="D479" t="inlineStr"/>
       <c r="E479" t="inlineStr">
         <is>
-          <t>11.7%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F479" t="inlineStr"/>
-      <c r="G479" t="inlineStr">
-        <is>
-          <t>6.4%</t>
-        </is>
-      </c>
+      <c r="G479" t="inlineStr"/>
       <c r="H479" t="inlineStr">
         <is>
           <t>3</t>
@@ -15824,25 +15762,33 @@
       </c>
     </row>
     <row r="480">
-      <c r="A480" t="inlineStr"/>
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>08:30 AM</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Vehicle Sales YoYDEC</t>
+          <t>PPI YoYDEC</t>
         </is>
       </c>
       <c r="D480" t="inlineStr"/>
       <c r="E480" t="inlineStr">
         <is>
-          <t>12%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F480" t="inlineStr"/>
-      <c r="G480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>3.0%</t>
+        </is>
+      </c>
       <c r="H480" t="inlineStr">
         <is>
           <t>3</t>
@@ -15852,45 +15798,53 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr"/>
-      <c r="C481" t="inlineStr"/>
+          <t>08:55 AM</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>Redbook YoYJAN/11</t>
+        </is>
+      </c>
       <c r="D481" t="inlineStr"/>
       <c r="E481" t="inlineStr"/>
       <c r="F481" t="inlineStr"/>
       <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr"/>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>10:05 AM</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey CurrentDEC</t>
+          <t>RCM/TIPP Economic Optimism IndexJAN</t>
         </is>
       </c>
       <c r="D482" t="inlineStr"/>
       <c r="E482" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>54</t>
         </is>
       </c>
       <c r="F482" t="inlineStr"/>
-      <c r="G482" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
+      <c r="G482" t="inlineStr"/>
       <c r="H482" t="inlineStr">
         <is>
           <t>3</t>
@@ -15900,29 +15854,29 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Eco Watchers Survey OutlookDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D483" t="inlineStr"/>
       <c r="E483" t="inlineStr">
         <is>
-          <t>49.4</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F483" t="inlineStr"/>
       <c r="G483" t="inlineStr">
         <is>
-          <t>49.6</t>
+          <t>2.0%</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
@@ -15934,23 +15888,31 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>MAS 12-Week Bill Auction</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D484" t="inlineStr"/>
-      <c r="E484" t="inlineStr"/>
+      <c r="E484" t="inlineStr">
+        <is>
+          <t>166%</t>
+        </is>
+      </c>
       <c r="F484" t="inlineStr"/>
-      <c r="G484" t="inlineStr"/>
+      <c r="G484" t="inlineStr">
+        <is>
+          <t>116.0%</t>
+        </is>
+      </c>
       <c r="H484" t="inlineStr">
         <is>
           <t>3</t>
@@ -15960,23 +15922,31 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>12:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>MAS 4-Week Bill Auction</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="D485" t="inlineStr"/>
-      <c r="E485" t="inlineStr"/>
+      <c r="E485" t="inlineStr">
+        <is>
+          <t>7%</t>
+        </is>
+      </c>
       <c r="F485" t="inlineStr"/>
-      <c r="G485" t="inlineStr"/>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
       <c r="H485" t="inlineStr">
         <is>
           <t>3</t>
@@ -15986,29 +15956,29 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>WPI Food Index YoYDEC</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="D486" t="inlineStr"/>
       <c r="E486" t="inlineStr">
         <is>
-          <t>8.92%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F486" t="inlineStr"/>
       <c r="G486" t="inlineStr">
         <is>
-          <t>10.2%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
@@ -16020,91 +15990,83 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>WPI Fuel YoYDEC</t>
+          <t>API Crude Oil Stock ChangeJAN/10</t>
         </is>
       </c>
       <c r="D487" t="inlineStr"/>
-      <c r="E487" t="inlineStr">
-        <is>
-          <t>-5.83%</t>
-        </is>
-      </c>
+      <c r="E487" t="inlineStr"/>
       <c r="F487" t="inlineStr"/>
-      <c r="G487" t="inlineStr">
-        <is>
-          <t>-3.2%</t>
-        </is>
-      </c>
+      <c r="G487" t="inlineStr"/>
       <c r="H487" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>WPI Manufacturing YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D488" t="inlineStr"/>
       <c r="E488" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>$4.42B</t>
         </is>
       </c>
       <c r="F488" t="inlineStr"/>
       <c r="G488" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>$ 2.8B</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Budget BalanceNOV</t>
+          <t>Exports YoYDEC</t>
         </is>
       </c>
       <c r="D489" t="inlineStr"/>
       <c r="E489" t="inlineStr">
         <is>
-          <t>€-157.39B</t>
+          <t>9.14%</t>
         </is>
       </c>
       <c r="F489" t="inlineStr"/>
@@ -16118,53 +16080,49 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>11:00 PM</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>Imports YoYDEC</t>
         </is>
       </c>
       <c r="D490" t="inlineStr"/>
       <c r="E490" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.01%</t>
         </is>
       </c>
       <c r="F490" t="inlineStr"/>
       <c r="G490" t="inlineStr"/>
       <c r="H490" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>04:00 AM</t>
-        </is>
-      </c>
+      <c r="A491" t="inlineStr"/>
       <c r="B491" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>5-Year KTB Auction</t>
         </is>
       </c>
       <c r="D491" t="inlineStr"/>
       <c r="E491" t="inlineStr">
         <is>
-          <t>-3.6%</t>
+          <t>2.680%</t>
         </is>
       </c>
       <c r="F491" t="inlineStr"/>
@@ -16176,23 +16134,23 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
+      <c r="A492" t="inlineStr"/>
       <c r="B492" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>3-Month Letras Auction</t>
+          <t>Passenger Vehicles Sales YoYDEC</t>
         </is>
       </c>
       <c r="D492" t="inlineStr"/>
-      <c r="E492" t="inlineStr"/>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>4.3%</t>
+        </is>
+      </c>
       <c r="F492" t="inlineStr"/>
       <c r="G492" t="inlineStr"/>
       <c r="H492" t="inlineStr">
@@ -16204,49 +16162,37 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>04:40 AM</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="C493" t="inlineStr">
-        <is>
-          <t>9-Month Letras Auction</t>
-        </is>
-      </c>
+          <t>Wednesday January 15 2025</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
       <c r="D493" t="inlineStr"/>
       <c r="E493" t="inlineStr"/>
       <c r="F493" t="inlineStr"/>
       <c r="G493" t="inlineStr"/>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="H493" t="inlineStr"/>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>01:00 AM</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>20-Year Index-Linked Treasury Gilt Auction</t>
+          <t>Machine Tool Orders YoYDEC</t>
         </is>
       </c>
       <c r="D494" t="inlineStr"/>
       <c r="E494" t="inlineStr">
         <is>
-          <t>1.200%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="F494" t="inlineStr"/>
@@ -16260,27 +16206,31 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>5-Year Bobl Auction</t>
+          <t>WPI Inflation YoYDEC</t>
         </is>
       </c>
       <c r="D495" t="inlineStr"/>
       <c r="E495" t="inlineStr">
         <is>
-          <t>2.04%</t>
+          <t>1.89%</t>
         </is>
       </c>
       <c r="F495" t="inlineStr"/>
-      <c r="G495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>1.9%</t>
+        </is>
+      </c>
       <c r="H495" t="inlineStr">
         <is>
           <t>3</t>
@@ -16290,193 +16240,201 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>Wholesale Prices MoMDEC</t>
         </is>
       </c>
       <c r="D496" t="inlineStr"/>
       <c r="E496" t="inlineStr">
         <is>
-          <t>101.7</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F496" t="inlineStr"/>
       <c r="G496" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>PPI MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D497" t="inlineStr"/>
       <c r="E497" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F497" t="inlineStr"/>
       <c r="G497" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D498" t="inlineStr"/>
       <c r="E498" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="F498" t="inlineStr"/>
-      <c r="G498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D499" t="inlineStr"/>
       <c r="E499" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="F499" t="inlineStr"/>
       <c r="G499" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D500" t="inlineStr"/>
       <c r="E500" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F500" t="inlineStr"/>
       <c r="G500" t="inlineStr">
         <is>
-          <t>146.4</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D501" t="inlineStr"/>
       <c r="E501" t="inlineStr">
         <is>
+          <t>0.0%</t>
+        </is>
+      </c>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
           <t>0.1%</t>
         </is>
       </c>
-      <c r="F501" t="inlineStr"/>
-      <c r="G501" t="inlineStr"/>
       <c r="H501" t="inlineStr">
         <is>
           <t>3</t>
@@ -16486,27 +16444,31 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>PPI Core Output MoMDEC</t>
         </is>
       </c>
       <c r="D502" t="inlineStr"/>
       <c r="E502" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F502" t="inlineStr"/>
-      <c r="G502" t="inlineStr"/>
+      <c r="G502" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H502" t="inlineStr">
         <is>
           <t>3</t>
@@ -16516,29 +16478,29 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>PPI Core Output YoYDEC</t>
         </is>
       </c>
       <c r="D503" t="inlineStr"/>
       <c r="E503" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="F503" t="inlineStr"/>
       <c r="G503" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>2.1%</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
@@ -16550,23 +16512,31 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>PPI Input MoMDEC</t>
         </is>
       </c>
       <c r="D504" t="inlineStr"/>
-      <c r="E504" t="inlineStr"/>
+      <c r="E504" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
       <c r="F504" t="inlineStr"/>
-      <c r="G504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>-1.3%</t>
+        </is>
+      </c>
       <c r="H504" t="inlineStr">
         <is>
           <t>3</t>
@@ -16576,27 +16546,31 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>10:05 AM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>PPI Input YoYDEC</t>
         </is>
       </c>
       <c r="D505" t="inlineStr"/>
       <c r="E505" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-1.9%</t>
         </is>
       </c>
       <c r="F505" t="inlineStr"/>
-      <c r="G505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>-1%</t>
+        </is>
+      </c>
       <c r="H505" t="inlineStr">
         <is>
           <t>3</t>
@@ -16606,29 +16580,29 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>PPI Output MoMDEC</t>
         </is>
       </c>
       <c r="D506" t="inlineStr"/>
       <c r="E506" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F506" t="inlineStr"/>
       <c r="G506" t="inlineStr">
         <is>
-          <t>2.0%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="H506" t="inlineStr">
@@ -16640,29 +16614,29 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>PPI Output YoYDEC</t>
         </is>
       </c>
       <c r="D507" t="inlineStr"/>
       <c r="E507" t="inlineStr">
         <is>
-          <t>166%</t>
+          <t>-0.6%</t>
         </is>
       </c>
       <c r="F507" t="inlineStr"/>
       <c r="G507" t="inlineStr">
         <is>
-          <t>116.0%</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="H507" t="inlineStr">
@@ -16674,31 +16648,27 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>Export Prices YoYDEC</t>
+          <t>Retail Price Index MoMDEC</t>
         </is>
       </c>
       <c r="D508" t="inlineStr"/>
       <c r="E508" t="inlineStr">
         <is>
-          <t>7%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="F508" t="inlineStr"/>
-      <c r="G508" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+      <c r="G508" t="inlineStr"/>
       <c r="H508" t="inlineStr">
         <is>
           <t>3</t>
@@ -16708,29 +16678,29 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>04:00 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>Import Prices YoYDEC</t>
+          <t>Retail Price Index YoYDEC</t>
         </is>
       </c>
       <c r="D509" t="inlineStr"/>
       <c r="E509" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F509" t="inlineStr"/>
       <c r="G509" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>3.0%</t>
         </is>
       </c>
       <c r="H509" t="inlineStr">
@@ -16742,23 +16712,31 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D510" t="inlineStr"/>
-      <c r="E510" t="inlineStr"/>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="F510" t="inlineStr"/>
-      <c r="G510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H510" t="inlineStr">
         <is>
           <t>2</t>
@@ -16768,29 +16746,29 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D511" t="inlineStr"/>
       <c r="E511" t="inlineStr">
         <is>
-          <t>$4.42B</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="F511" t="inlineStr"/>
       <c r="G511" t="inlineStr">
         <is>
-          <t>$ 2.8B</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="H511" t="inlineStr">
@@ -16802,23 +16780,23 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D512" t="inlineStr"/>
       <c r="E512" t="inlineStr">
         <is>
-          <t>9.14%</t>
+          <t>1.7%</t>
         </is>
       </c>
       <c r="F512" t="inlineStr"/>
@@ -16832,27 +16810,31 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>11:00 PM</t>
+          <t>02:45 AM</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D513" t="inlineStr"/>
       <c r="E513" t="inlineStr">
         <is>
-          <t>0.01%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="F513" t="inlineStr"/>
-      <c r="G513" t="inlineStr"/>
+      <c r="G513" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H513" t="inlineStr">
         <is>
           <t>3</t>
@@ -16860,21 +16842,25 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" t="inlineStr"/>
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>5-Year KTB Auction</t>
+          <t>Harmonised Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D514" t="inlineStr"/>
       <c r="E514" t="inlineStr">
         <is>
-          <t>2.680%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="F514" t="inlineStr"/>
@@ -16886,25 +16872,37 @@
       </c>
     </row>
     <row r="515">
-      <c r="A515" t="inlineStr"/>
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>03:00 AM</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>Passenger Vehicles Sales YoYDEC</t>
+          <t>Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D515" t="inlineStr"/>
       <c r="E515" t="inlineStr">
         <is>
-          <t>4.3%</t>
-        </is>
-      </c>
-      <c r="F515" t="inlineStr"/>
-      <c r="G515" t="inlineStr"/>
+          <t>0.2%</t>
+        </is>
+      </c>
+      <c r="F515" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="H515" t="inlineStr">
         <is>
           <t>3</t>
@@ -16914,41 +16912,73 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr"/>
-      <c r="C516" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Inflation Rate YoY FinalDEC</t>
+        </is>
+      </c>
       <c r="D516" t="inlineStr"/>
-      <c r="E516" t="inlineStr"/>
-      <c r="F516" t="inlineStr"/>
-      <c r="G516" t="inlineStr"/>
-      <c r="H516" t="inlineStr"/>
+      <c r="E516" t="inlineStr">
+        <is>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F516" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>2.8%</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>01:00 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>Machine Tool Orders YoYDEC</t>
+          <t>Core Inflation Rate YoY FinalDEC</t>
         </is>
       </c>
       <c r="D517" t="inlineStr"/>
       <c r="E517" t="inlineStr">
         <is>
-          <t>3.0%</t>
-        </is>
-      </c>
-      <c r="F517" t="inlineStr"/>
-      <c r="G517" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="F517" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="G517" t="inlineStr">
+        <is>
+          <t>2.6%</t>
+        </is>
+      </c>
       <c r="H517" t="inlineStr">
         <is>
           <t>3</t>
@@ -16958,29 +16988,29 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>01:30 AM</t>
+          <t>03:00 AM</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>WPI Inflation YoYDEC</t>
+          <t>Harmonised Inflation Rate MoM FinalDEC</t>
         </is>
       </c>
       <c r="D518" t="inlineStr"/>
       <c r="E518" t="inlineStr">
         <is>
-          <t>1.89%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F518" t="inlineStr"/>
       <c r="G518" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="H518" t="inlineStr">
@@ -16992,7 +17022,7 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>04:00 AM</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
@@ -17002,55 +17032,51 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>Wholesale Prices MoMDEC</t>
+          <t>Full Year GDP Growth2025</t>
         </is>
       </c>
       <c r="D519" t="inlineStr"/>
       <c r="E519" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="F519" t="inlineStr"/>
       <c r="G519" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="H519" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>Wholesale Prices YoYDEC</t>
+          <t>Industrial Production MoMNOV</t>
         </is>
       </c>
       <c r="D520" t="inlineStr"/>
       <c r="E520" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F520" t="inlineStr"/>
-      <c r="G520" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
+      <c r="G520" t="inlineStr"/>
       <c r="H520" t="inlineStr">
         <is>
           <t>2</t>
@@ -17060,41 +17086,37 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Industrial Production YoYNOV</t>
         </is>
       </c>
       <c r="D521" t="inlineStr"/>
       <c r="E521" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>-1.2%</t>
         </is>
       </c>
       <c r="F521" t="inlineStr"/>
-      <c r="G521" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+      <c r="G521" t="inlineStr"/>
       <c r="H521" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:00 AM</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
@@ -17104,89 +17126,77 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>10-Year Treasury Gilt Auction</t>
         </is>
       </c>
       <c r="D522" t="inlineStr"/>
       <c r="E522" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>4.332%</t>
         </is>
       </c>
       <c r="F522" t="inlineStr"/>
-      <c r="G522" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G522" t="inlineStr"/>
       <c r="H522" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>05:30 AM</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>30-Year Bund Auction</t>
         </is>
       </c>
       <c r="D523" t="inlineStr"/>
       <c r="E523" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.55%</t>
         </is>
       </c>
       <c r="F523" t="inlineStr"/>
-      <c r="G523" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G523" t="inlineStr"/>
       <c r="H523" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Gross Fixed Investment MoMOCT</t>
         </is>
       </c>
       <c r="D524" t="inlineStr"/>
       <c r="E524" t="inlineStr">
         <is>
-          <t>0.0%</t>
+          <t>-0.8%</t>
         </is>
       </c>
       <c r="F524" t="inlineStr"/>
-      <c r="G524" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G524" t="inlineStr"/>
       <c r="H524" t="inlineStr">
         <is>
           <t>3</t>
@@ -17196,31 +17206,27 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>PPI Core Output MoMDEC</t>
+          <t>Gross Fixed Investment YoYOCT</t>
         </is>
       </c>
       <c r="D525" t="inlineStr"/>
       <c r="E525" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>-3.3%</t>
         </is>
       </c>
       <c r="F525" t="inlineStr"/>
-      <c r="G525" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G525" t="inlineStr"/>
       <c r="H525" t="inlineStr">
         <is>
           <t>3</t>
@@ -17230,65 +17236,49 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>PPI Core Output YoYDEC</t>
+          <t>MBA 30-Year Mortgage RateJAN/10</t>
         </is>
       </c>
       <c r="D526" t="inlineStr"/>
-      <c r="E526" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
+      <c r="E526" t="inlineStr"/>
       <c r="F526" t="inlineStr"/>
-      <c r="G526" t="inlineStr">
-        <is>
-          <t>2.1%</t>
-        </is>
-      </c>
+      <c r="G526" t="inlineStr"/>
       <c r="H526" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>PPI Input MoMDEC</t>
+          <t>MBA Mortgage ApplicationsJAN/10</t>
         </is>
       </c>
       <c r="D527" t="inlineStr"/>
-      <c r="E527" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E527" t="inlineStr"/>
       <c r="F527" t="inlineStr"/>
-      <c r="G527" t="inlineStr">
-        <is>
-          <t>-1.3%</t>
-        </is>
-      </c>
+      <c r="G527" t="inlineStr"/>
       <c r="H527" t="inlineStr">
         <is>
           <t>3</t>
@@ -17298,31 +17288,23 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>PPI Input YoYDEC</t>
+          <t>MBA Mortgage Market IndexJAN/10</t>
         </is>
       </c>
       <c r="D528" t="inlineStr"/>
-      <c r="E528" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="E528" t="inlineStr"/>
       <c r="F528" t="inlineStr"/>
-      <c r="G528" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
+      <c r="G528" t="inlineStr"/>
       <c r="H528" t="inlineStr">
         <is>
           <t>3</t>
@@ -17332,31 +17314,23 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>PPI Output MoMDEC</t>
+          <t>MBA Mortgage Refinance IndexJAN/10</t>
         </is>
       </c>
       <c r="D529" t="inlineStr"/>
-      <c r="E529" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E529" t="inlineStr"/>
       <c r="F529" t="inlineStr"/>
-      <c r="G529" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="G529" t="inlineStr"/>
       <c r="H529" t="inlineStr">
         <is>
           <t>3</t>
@@ -17366,31 +17340,23 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>07:00 AM</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>PPI Output YoYDEC</t>
+          <t>MBA Purchase IndexJAN/10</t>
         </is>
       </c>
       <c r="D530" t="inlineStr"/>
-      <c r="E530" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="E530" t="inlineStr"/>
       <c r="F530" t="inlineStr"/>
-      <c r="G530" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
+      <c r="G530" t="inlineStr"/>
       <c r="H530" t="inlineStr">
         <is>
           <t>3</t>
@@ -17400,27 +17366,31 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>Retail Price Index MoMDEC</t>
+          <t>Foreign Exchange ReservesDEC</t>
         </is>
       </c>
       <c r="D531" t="inlineStr"/>
       <c r="E531" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>$616.5B</t>
         </is>
       </c>
       <c r="F531" t="inlineStr"/>
-      <c r="G531" t="inlineStr"/>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>$628.0B</t>
+        </is>
+      </c>
       <c r="H531" t="inlineStr">
         <is>
           <t>3</t>
@@ -17430,29 +17400,33 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>Retail Price Index YoYDEC</t>
+          <t>Manufacturing Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D532" t="inlineStr"/>
       <c r="E532" t="inlineStr">
         <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F532" t="inlineStr"/>
+          <t>2.1%</t>
+        </is>
+      </c>
+      <c r="F532" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="G532" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="H532" t="inlineStr">
@@ -17464,369 +17438,349 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>New Motor Vehicle SalesNOV</t>
         </is>
       </c>
       <c r="D533" t="inlineStr"/>
       <c r="E533" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>163.6K</t>
         </is>
       </c>
       <c r="F533" t="inlineStr"/>
-      <c r="G533" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G533" t="inlineStr"/>
       <c r="H533" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>Wholesale Sales MoM FinalNOV</t>
         </is>
       </c>
       <c r="D534" t="inlineStr"/>
       <c r="E534" t="inlineStr">
         <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="F534" t="inlineStr"/>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="F534" t="inlineStr">
+        <is>
+          <t>-0.7%</t>
+        </is>
+      </c>
       <c r="G534" t="inlineStr">
         <is>
-          <t>1.6%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="H534" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Core Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D535" t="inlineStr"/>
       <c r="E535" t="inlineStr">
         <is>
-          <t>1.7%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F535" t="inlineStr"/>
-      <c r="G535" t="inlineStr"/>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>-0.1%</t>
+        </is>
+      </c>
       <c r="H535" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>02:45 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>Core Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D536" t="inlineStr"/>
       <c r="E536" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>3.3%</t>
         </is>
       </c>
       <c r="F536" t="inlineStr"/>
       <c r="G536" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="H536" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate YoY FinalDEC</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D537" t="inlineStr"/>
       <c r="E537" t="inlineStr">
         <is>
-          <t>2.4%</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F537" t="inlineStr"/>
-      <c r="G537" t="inlineStr"/>
+      <c r="G537" t="inlineStr">
+        <is>
+          <t>0.3%</t>
+        </is>
+      </c>
       <c r="H537" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t>Inflation Rate MoM FinalDEC</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D538" t="inlineStr"/>
       <c r="E538" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F538" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>2.7%</t>
+        </is>
+      </c>
+      <c r="F538" t="inlineStr"/>
       <c r="G538" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="H538" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t>Inflation Rate YoY FinalDEC</t>
+          <t>CPIDEC</t>
         </is>
       </c>
       <c r="D539" t="inlineStr"/>
       <c r="E539" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F539" t="inlineStr">
-        <is>
-          <t>2.8%</t>
-        </is>
-      </c>
+          <t>315.49</t>
+        </is>
+      </c>
+      <c r="F539" t="inlineStr"/>
       <c r="G539" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>313.8</t>
         </is>
       </c>
       <c r="H539" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoY FinalDEC</t>
+          <t>CPI s.aDEC</t>
         </is>
       </c>
       <c r="D540" t="inlineStr"/>
       <c r="E540" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="F540" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
+          <t>316.441</t>
+        </is>
+      </c>
+      <c r="F540" t="inlineStr"/>
       <c r="G540" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>317.4</t>
         </is>
       </c>
       <c r="H540" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t>Harmonised Inflation Rate MoM FinalDEC</t>
+          <t>NY Empire State Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="D541" t="inlineStr"/>
       <c r="E541" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="F541" t="inlineStr"/>
-      <c r="G541" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="G541" t="inlineStr"/>
       <c r="H541" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>04:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t>Full Year GDP Growth2025</t>
+          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D542" t="inlineStr"/>
-      <c r="E542" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="E542" t="inlineStr"/>
       <c r="F542" t="inlineStr"/>
-      <c r="G542" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="G542" t="inlineStr"/>
       <c r="H542" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t>Industrial Production MoMNOV</t>
+          <t>EIA Gasoline Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D543" t="inlineStr"/>
-      <c r="E543" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
+      <c r="E543" t="inlineStr"/>
       <c r="F543" t="inlineStr"/>
       <c r="G543" t="inlineStr"/>
       <c r="H543" t="inlineStr">
@@ -17838,25 +17792,21 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t>Industrial Production YoYNOV</t>
+          <t>EIA Crude Oil Imports ChangeJAN/10</t>
         </is>
       </c>
       <c r="D544" t="inlineStr"/>
-      <c r="E544" t="inlineStr">
-        <is>
-          <t>-1.2%</t>
-        </is>
-      </c>
+      <c r="E544" t="inlineStr"/>
       <c r="F544" t="inlineStr"/>
       <c r="G544" t="inlineStr"/>
       <c r="H544" t="inlineStr">
@@ -17868,25 +17818,21 @@
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>05:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t>10-Year Treasury Gilt Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D545" t="inlineStr"/>
-      <c r="E545" t="inlineStr">
-        <is>
-          <t>4.332%</t>
-        </is>
-      </c>
+      <c r="E545" t="inlineStr"/>
       <c r="F545" t="inlineStr"/>
       <c r="G545" t="inlineStr"/>
       <c r="H545" t="inlineStr">
@@ -17898,25 +17844,21 @@
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>05:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t>30-Year Bund Auction</t>
+          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D546" t="inlineStr"/>
-      <c r="E546" t="inlineStr">
-        <is>
-          <t>2.55%</t>
-        </is>
-      </c>
+      <c r="E546" t="inlineStr"/>
       <c r="F546" t="inlineStr"/>
       <c r="G546" t="inlineStr"/>
       <c r="H546" t="inlineStr">
@@ -17928,25 +17870,21 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment MoMOCT</t>
+          <t>EIA Distillate Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D547" t="inlineStr"/>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="E547" t="inlineStr"/>
       <c r="F547" t="inlineStr"/>
       <c r="G547" t="inlineStr"/>
       <c r="H547" t="inlineStr">
@@ -17958,25 +17896,21 @@
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t>Gross Fixed Investment YoYOCT</t>
+          <t>EIA Gasoline Production ChangeJAN/10</t>
         </is>
       </c>
       <c r="D548" t="inlineStr"/>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>-3.3%</t>
-        </is>
-      </c>
+      <c r="E548" t="inlineStr"/>
       <c r="F548" t="inlineStr"/>
       <c r="G548" t="inlineStr"/>
       <c r="H548" t="inlineStr">
@@ -17988,7 +17922,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B549" t="inlineStr">
@@ -17998,7 +17932,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="D549" t="inlineStr"/>
@@ -18007,14 +17941,14 @@
       <c r="G549" t="inlineStr"/>
       <c r="H549" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B550" t="inlineStr">
@@ -18024,7 +17958,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="D550" t="inlineStr"/>
@@ -18040,59 +17974,75 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D551" t="inlineStr"/>
-      <c r="E551" t="inlineStr"/>
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>1.4%</t>
+        </is>
+      </c>
       <c r="F551" t="inlineStr"/>
-      <c r="G551" t="inlineStr"/>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>0.7%</t>
+        </is>
+      </c>
       <c r="H551" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D552" t="inlineStr"/>
-      <c r="E552" t="inlineStr"/>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>8.9%</t>
+        </is>
+      </c>
       <c r="F552" t="inlineStr"/>
-      <c r="G552" t="inlineStr"/>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>9.5%</t>
+        </is>
+      </c>
       <c r="H552" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B553" t="inlineStr">
@@ -18102,7 +18052,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexJAN/10</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="D553" t="inlineStr"/>
@@ -18118,41 +18068,41 @@
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Foreign Exchange ReservesDEC</t>
+          <t>Business ConfidenceJAN</t>
         </is>
       </c>
       <c r="D554" t="inlineStr"/>
       <c r="E554" t="inlineStr">
         <is>
-          <t>$616.5B</t>
+          <t>50.1</t>
         </is>
       </c>
       <c r="F554" t="inlineStr"/>
       <c r="G554" t="inlineStr">
         <is>
-          <t>$628.0B</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="H554" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B555" t="inlineStr">
@@ -18162,25 +18112,17 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Manufacturing Sales MoM FinalNOV</t>
+          <t>5-Year Bond Auction</t>
         </is>
       </c>
       <c r="D555" t="inlineStr"/>
       <c r="E555" t="inlineStr">
         <is>
-          <t>2.1%</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G555" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+          <t>3.146%</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr"/>
+      <c r="G555" t="inlineStr"/>
       <c r="H555" t="inlineStr">
         <is>
           <t>3</t>
@@ -18188,29 +18130,29 @@
       </c>
     </row>
     <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A556" t="inlineStr"/>
       <c r="B556" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>New Motor Vehicle SalesNOV</t>
+          <t>Inflation Rate MoMDEC</t>
         </is>
       </c>
       <c r="D556" t="inlineStr"/>
       <c r="E556" t="inlineStr">
         <is>
-          <t>163.6K</t>
+          <t>0.3%</t>
         </is>
       </c>
       <c r="F556" t="inlineStr"/>
-      <c r="G556" t="inlineStr"/>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>0.1%</t>
+        </is>
+      </c>
       <c r="H556" t="inlineStr">
         <is>
           <t>3</t>
@@ -18218,35 +18160,27 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A557" t="inlineStr"/>
       <c r="B557" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Wholesale Sales MoM FinalNOV</t>
+          <t>Inflation Rate YoYDEC</t>
         </is>
       </c>
       <c r="D557" t="inlineStr"/>
       <c r="E557" t="inlineStr">
         <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
+          <t>2%</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr"/>
       <c r="G557" t="inlineStr">
         <is>
-          <t>-0.7%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H557" t="inlineStr">
@@ -18256,850 +18190,164 @@
       </c>
     </row>
     <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A558" t="inlineStr"/>
       <c r="B558" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Core Inflation Rate MoMDEC</t>
+          <t>Wholesale Prices YoYDEC</t>
         </is>
       </c>
       <c r="D558" t="inlineStr"/>
       <c r="E558" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>1.4%</t>
         </is>
       </c>
       <c r="F558" t="inlineStr"/>
       <c r="G558" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="H558" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="559">
-      <c r="A559" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A559" t="inlineStr"/>
       <c r="B559" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Core Inflation Rate YoYDEC</t>
+          <t>Budget BalanceDEC</t>
         </is>
       </c>
       <c r="D559" t="inlineStr"/>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
+      <c r="E559" t="inlineStr"/>
       <c r="F559" t="inlineStr"/>
-      <c r="G559" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
+      <c r="G559" t="inlineStr"/>
       <c r="H559" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="560">
-      <c r="A560" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A560" t="inlineStr"/>
       <c r="B560" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>OPEC Monthly Report</t>
         </is>
       </c>
       <c r="D560" t="inlineStr"/>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="E560" t="inlineStr"/>
       <c r="F560" t="inlineStr"/>
-      <c r="G560" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="G560" t="inlineStr"/>
       <c r="H560" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="561">
-      <c r="A561" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A561" t="inlineStr"/>
       <c r="B561" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Balance of TradeDEC</t>
         </is>
       </c>
       <c r="D561" t="inlineStr"/>
       <c r="E561" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>$-37.84B</t>
         </is>
       </c>
       <c r="F561" t="inlineStr"/>
       <c r="G561" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>$ -23B</t>
         </is>
       </c>
       <c r="H561" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="562">
-      <c r="A562" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A562" t="inlineStr"/>
       <c r="B562" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>CPIDEC</t>
+          <t>ExportsDEC</t>
         </is>
       </c>
       <c r="D562" t="inlineStr"/>
       <c r="E562" t="inlineStr">
         <is>
-          <t>315.49</t>
+          <t>$32.11B</t>
         </is>
       </c>
       <c r="F562" t="inlineStr"/>
       <c r="G562" t="inlineStr">
         <is>
-          <t>313.8</t>
+          <t>$ 36B</t>
         </is>
       </c>
       <c r="H562" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="563">
-      <c r="A563" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
+      <c r="A563" t="inlineStr"/>
       <c r="B563" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>CPI s.aDEC</t>
+          <t>ImportsDEC</t>
         </is>
       </c>
       <c r="D563" t="inlineStr"/>
       <c r="E563" t="inlineStr">
         <is>
-          <t>316.441</t>
+          <t>$69.95B</t>
         </is>
       </c>
       <c r="F563" t="inlineStr"/>
       <c r="G563" t="inlineStr">
         <is>
-          <t>317.4</t>
+          <t>$ 59B</t>
         </is>
       </c>
       <c r="H563" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B564" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C564" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="D564" t="inlineStr"/>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="F564" t="inlineStr"/>
-      <c r="G564" t="inlineStr"/>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B565" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C565" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D565" t="inlineStr"/>
-      <c r="E565" t="inlineStr"/>
-      <c r="F565" t="inlineStr"/>
-      <c r="G565" t="inlineStr"/>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D566" t="inlineStr"/>
-      <c r="E566" t="inlineStr"/>
-      <c r="F566" t="inlineStr"/>
-      <c r="G566" t="inlineStr"/>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D567" t="inlineStr"/>
-      <c r="E567" t="inlineStr"/>
-      <c r="F567" t="inlineStr"/>
-      <c r="G567" t="inlineStr"/>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B568" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C568" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D568" t="inlineStr"/>
-      <c r="E568" t="inlineStr"/>
-      <c r="F568" t="inlineStr"/>
-      <c r="G568" t="inlineStr"/>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B569" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C569" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D569" t="inlineStr"/>
-      <c r="E569" t="inlineStr"/>
-      <c r="F569" t="inlineStr"/>
-      <c r="G569" t="inlineStr"/>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B570" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C570" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D570" t="inlineStr"/>
-      <c r="E570" t="inlineStr"/>
-      <c r="F570" t="inlineStr"/>
-      <c r="G570" t="inlineStr"/>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B571" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C571" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D571" t="inlineStr"/>
-      <c r="E571" t="inlineStr"/>
-      <c r="F571" t="inlineStr"/>
-      <c r="G571" t="inlineStr"/>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B572" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C572" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D572" t="inlineStr"/>
-      <c r="E572" t="inlineStr"/>
-      <c r="F572" t="inlineStr"/>
-      <c r="G572" t="inlineStr"/>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B573" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C573" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="D573" t="inlineStr"/>
-      <c r="E573" t="inlineStr"/>
-      <c r="F573" t="inlineStr"/>
-      <c r="G573" t="inlineStr"/>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B574" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C574" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F574" t="inlineStr"/>
-      <c r="G574" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B575" t="inlineStr">
-        <is>
-          <t>RU</t>
-        </is>
-      </c>
-      <c r="C575" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D575" t="inlineStr"/>
-      <c r="E575" t="inlineStr">
-        <is>
-          <t>8.9%</t>
-        </is>
-      </c>
-      <c r="F575" t="inlineStr"/>
-      <c r="G575" t="inlineStr">
-        <is>
-          <t>9.5%</t>
-        </is>
-      </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B576" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="C576" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="D576" t="inlineStr"/>
-      <c r="E576" t="inlineStr"/>
-      <c r="F576" t="inlineStr"/>
-      <c r="G576" t="inlineStr"/>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B577" t="inlineStr">
-        <is>
-          <t>BR</t>
-        </is>
-      </c>
-      <c r="C577" t="inlineStr">
-        <is>
-          <t>Business ConfidenceJAN</t>
-        </is>
-      </c>
-      <c r="D577" t="inlineStr"/>
-      <c r="E577" t="inlineStr">
-        <is>
-          <t>50.1</t>
-        </is>
-      </c>
-      <c r="F577" t="inlineStr"/>
-      <c r="G577" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B578" t="inlineStr">
-        <is>
-          <t>CA</t>
-        </is>
-      </c>
-      <c r="C578" t="inlineStr">
-        <is>
-          <t>5-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="D578" t="inlineStr"/>
-      <c r="E578" t="inlineStr">
-        <is>
-          <t>3.146%</t>
-        </is>
-      </c>
-      <c r="F578" t="inlineStr"/>
-      <c r="G578" t="inlineStr"/>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr"/>
-      <c r="B579" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C579" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="D579" t="inlineStr"/>
-      <c r="E579" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F579" t="inlineStr"/>
-      <c r="G579" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr"/>
-      <c r="B580" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C580" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="D580" t="inlineStr"/>
-      <c r="E580" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="F580" t="inlineStr"/>
-      <c r="G580" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr"/>
-      <c r="B581" t="inlineStr">
-        <is>
-          <t>SA</t>
-        </is>
-      </c>
-      <c r="C581" t="inlineStr">
-        <is>
-          <t>Wholesale Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="D581" t="inlineStr"/>
-      <c r="E581" t="inlineStr">
-        <is>
-          <t>1.4%</t>
-        </is>
-      </c>
-      <c r="F581" t="inlineStr"/>
-      <c r="G581" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr"/>
-      <c r="B582" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="C582" t="inlineStr">
-        <is>
-          <t>Budget BalanceDEC</t>
-        </is>
-      </c>
-      <c r="D582" t="inlineStr"/>
-      <c r="E582" t="inlineStr"/>
-      <c r="F582" t="inlineStr"/>
-      <c r="G582" t="inlineStr"/>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr"/>
-      <c r="B583" t="inlineStr">
-        <is>
-          <t>OP</t>
-        </is>
-      </c>
-      <c r="C583" t="inlineStr">
-        <is>
-          <t>OPEC Monthly Report</t>
-        </is>
-      </c>
-      <c r="D583" t="inlineStr"/>
-      <c r="E583" t="inlineStr"/>
-      <c r="F583" t="inlineStr"/>
-      <c r="G583" t="inlineStr"/>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr"/>
-      <c r="B584" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C584" t="inlineStr">
-        <is>
-          <t>Balance of TradeDEC</t>
-        </is>
-      </c>
-      <c r="D584" t="inlineStr"/>
-      <c r="E584" t="inlineStr">
-        <is>
-          <t>$-37.84B</t>
-        </is>
-      </c>
-      <c r="F584" t="inlineStr"/>
-      <c r="G584" t="inlineStr">
-        <is>
-          <t>$ -23B</t>
-        </is>
-      </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr"/>
-      <c r="B585" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C585" t="inlineStr">
-        <is>
-          <t>ExportsDEC</t>
-        </is>
-      </c>
-      <c r="D585" t="inlineStr"/>
-      <c r="E585" t="inlineStr">
-        <is>
-          <t>$32.11B</t>
-        </is>
-      </c>
-      <c r="F585" t="inlineStr"/>
-      <c r="G585" t="inlineStr">
-        <is>
-          <t>$ 36B</t>
-        </is>
-      </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr"/>
-      <c r="B586" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
-      <c r="C586" t="inlineStr">
-        <is>
-          <t>ImportsDEC</t>
-        </is>
-      </c>
-      <c r="D586" t="inlineStr"/>
-      <c r="E586" t="inlineStr">
-        <is>
-          <t>$69.95B</t>
-        </is>
-      </c>
-      <c r="F586" t="inlineStr"/>
-      <c r="G586" t="inlineStr">
-        <is>
-          <t>$ 59B</t>
-        </is>
-      </c>
-      <c r="H586" t="inlineStr">
         <is>
           <t>3</t>
         </is>

--- a/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
+++ b/Input_data/EST_All Countries_trad_eco_cal_2024-12-28_to_2025-01-15.xlsx
@@ -14682,222 +14682,250 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr"/>
-      <c r="C443" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Quarterly Grain Stocks - SoyDEC</t>
+        </is>
+      </c>
       <c r="D443" t="inlineStr"/>
-      <c r="E443" t="inlineStr"/>
+      <c r="E443" t="inlineStr">
+        <is>
+          <t>0.342B</t>
+        </is>
+      </c>
       <c r="F443" t="inlineStr"/>
       <c r="G443" t="inlineStr"/>
-      <c r="H443" t="inlineStr"/>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Inflation Rate YoYDEC</t>
+          <t>Quarterly Grain Stocks - WheatDEC</t>
         </is>
       </c>
       <c r="D444" t="inlineStr"/>
       <c r="E444" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F444" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G444" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="H444" t="n">
-        <v>1</v>
+          <t>1.98B</t>
+        </is>
+      </c>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr"/>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>02:00 PM</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>US</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Inflation Rate MoMDEC</t>
+          <t>Monthly Budget StatementDEC</t>
         </is>
       </c>
       <c r="D445" t="inlineStr"/>
       <c r="E445" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>$-367B</t>
         </is>
       </c>
       <c r="F445" t="inlineStr"/>
-      <c r="G445" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H445" t="n">
-        <v>2</v>
+      <c r="G445" t="inlineStr"/>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>08:30 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Westpac Consumer Confidence ChangeJAN</t>
         </is>
       </c>
       <c r="D446" t="inlineStr"/>
       <c r="E446" t="inlineStr">
         <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F446" t="inlineStr">
-        <is>
-          <t>-2.4%</t>
-        </is>
-      </c>
-      <c r="G446" t="inlineStr">
-        <is>
-          <t>-2.8%</t>
-        </is>
-      </c>
-      <c r="H446" t="n">
-        <v>2</v>
+          <t>-2%</t>
+        </is>
+      </c>
+      <c r="F446" t="inlineStr"/>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Balance of TradeDEC</t>
+          <t>Westpac Consumer Confidence IndexJAN</t>
         </is>
       </c>
       <c r="D447" t="inlineStr"/>
       <c r="E447" t="inlineStr">
         <is>
-          <t>$97.44B</t>
+          <t>92.8</t>
         </is>
       </c>
       <c r="F447" t="inlineStr"/>
-      <c r="G447" t="inlineStr">
-        <is>
-          <t>$ 85B</t>
-        </is>
-      </c>
-      <c r="H447" t="n">
-        <v>1</v>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Exports YoYDEC</t>
+          <t>Current AccountNOV</t>
         </is>
       </c>
       <c r="D448" t="inlineStr"/>
       <c r="E448" t="inlineStr">
         <is>
-          <t>6.7%</t>
+          <t>¥2457B</t>
         </is>
       </c>
       <c r="F448" t="inlineStr"/>
-      <c r="G448" t="inlineStr"/>
-      <c r="H448" t="n">
-        <v>1</v>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>¥1990.0B</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>10:00 PM</t>
+          <t>06:50 PM</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Imports YoYDEC</t>
+          <t>Bank Lending YoYDEC</t>
         </is>
       </c>
       <c r="D449" t="inlineStr"/>
       <c r="E449" t="inlineStr">
         <is>
-          <t>-3.9%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="F449" t="inlineStr"/>
-      <c r="G449" t="inlineStr"/>
-      <c r="H449" t="n">
-        <v>1</v>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>3.1%</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr"/>
-      <c r="C450" t="inlineStr"/>
+          <t>07:30 PM</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Building Permits MoM FinalNOV</t>
+        </is>
+      </c>
       <c r="D450" t="inlineStr"/>
-      <c r="E450" t="inlineStr"/>
+      <c r="E450" t="inlineStr">
+        <is>
+          <t>4.2%</t>
+        </is>
+      </c>
       <c r="F450" t="inlineStr"/>
       <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr"/>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
@@ -14912,55 +14940,51 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>ANZ-Indeed Job Ads MoMDEC</t>
+          <t>Private House Approvals MoM FinalNOV</t>
         </is>
       </c>
       <c r="D451" t="inlineStr"/>
       <c r="E451" t="inlineStr">
         <is>
-          <t>-1.3%</t>
+          <t>-5.2%</t>
         </is>
       </c>
       <c r="F451" t="inlineStr"/>
-      <c r="G451" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="H451" t="n">
-        <v>3</v>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>08:00 PM</t>
+          <t>10:35 PM</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>TD-MI Inflation Gauge MoMDEC</t>
+          <t>5-Year JGB Auction</t>
         </is>
       </c>
       <c r="D452" t="inlineStr"/>
       <c r="E452" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.734%</t>
         </is>
       </c>
       <c r="F452" t="inlineStr"/>
-      <c r="G452" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="H452" t="n">
-        <v>3</v>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
     </row>
     <row r="453">
